--- a/2.詳細設計/2-5_詳細設計_顧客情報消去画面.xlsx
+++ b/2.詳細設計/2-5_詳細設計_顧客情報消去画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEE6184-24AA-45EA-9313-BECB23505BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47712C98-6482-4DCA-919A-AED7B4C522DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="150" windowWidth="19530" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="60" windowWidth="17475" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="155">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -1415,6 +1415,10 @@
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CUST_ID = 『画面項目・顧客ID』</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2250,27 +2254,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2298,29 +2281,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,24 +2333,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2364,13 +2366,10 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="20" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2383,17 +2382,22 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2413,23 +2417,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2441,6 +2460,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,17 +2477,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2479,47 +2498,41 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2533,6 +2546,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,24 +2566,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6276,7 +6280,7 @@
   <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6616,28 +6620,28 @@
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="110"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="103"/>
       <c r="AB10" s="78"/>
       <c r="AC10" s="78"/>
       <c r="AD10" s="78"/>
@@ -6654,26 +6658,26 @@
       <c r="E11" s="77"/>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="113"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
       <c r="AB11" s="78"/>
       <c r="AC11" s="78"/>
       <c r="AD11" s="78"/>
@@ -6690,26 +6694,26 @@
       <c r="E12" s="77"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="113"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="106"/>
       <c r="AB12" s="78"/>
       <c r="AC12" s="78"/>
       <c r="AD12" s="78"/>
@@ -6726,28 +6730,28 @@
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="113"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="106"/>
       <c r="AB13" s="78"/>
       <c r="AC13" s="78"/>
       <c r="AD13" s="78"/>
@@ -6764,26 +6768,26 @@
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="113"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="106"/>
       <c r="AB14" s="78"/>
       <c r="AC14" s="78"/>
       <c r="AD14" s="78"/>
@@ -6800,26 +6804,26 @@
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="116"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="109"/>
       <c r="AB15" s="78"/>
       <c r="AC15" s="78"/>
       <c r="AD15" s="78"/>
@@ -7089,28 +7093,28 @@
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="101" t="s">
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="103"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="112"/>
       <c r="AA23" s="77"/>
       <c r="AB23" s="78"/>
       <c r="AC23" s="78"/>
@@ -7129,24 +7133,24 @@
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="106"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="115"/>
       <c r="AA24" s="77"/>
       <c r="AB24" s="78"/>
       <c r="AC24" s="78"/>
@@ -7165,28 +7169,28 @@
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="101" t="s">
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="103"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="112"/>
       <c r="AA25" s="77"/>
       <c r="AB25" s="78"/>
       <c r="AC25" s="78"/>
@@ -7205,24 +7209,24 @@
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="106"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="115"/>
       <c r="AA26" s="77"/>
       <c r="AB26" s="78"/>
       <c r="AC26" s="78"/>
@@ -7241,28 +7245,28 @@
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="101" t="s">
+      <c r="I27" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="101" t="s">
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="103"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="112"/>
       <c r="AA27" s="77"/>
       <c r="AB27" s="78"/>
       <c r="AC27" s="78"/>
@@ -7281,24 +7285,24 @@
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="106"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="115"/>
       <c r="AA28" s="77"/>
       <c r="AB28" s="78"/>
       <c r="AC28" s="78"/>
@@ -7317,28 +7321,28 @@
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="101" t="s">
+      <c r="I29" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="107">
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="116">
         <v>44539</v>
       </c>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="103"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="112"/>
       <c r="AA29" s="77"/>
       <c r="AB29" s="78"/>
       <c r="AC29" s="78"/>
@@ -7357,24 +7361,24 @@
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="106"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="115"/>
       <c r="AA30" s="77"/>
       <c r="AB30" s="78"/>
       <c r="AC30" s="78"/>
@@ -7393,28 +7397,28 @@
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="101" t="s">
+      <c r="I31" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="101" t="s">
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="103"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="112"/>
       <c r="AA31" s="77"/>
       <c r="AB31" s="78"/>
       <c r="AC31" s="78"/>
@@ -7433,24 +7437,24 @@
       <c r="F32" s="77"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="106"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="115"/>
       <c r="AA32" s="77"/>
       <c r="AB32" s="78"/>
       <c r="AC32" s="78"/>
@@ -7469,28 +7473,28 @@
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="101" t="s">
+      <c r="I33" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="107">
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="116">
         <v>44538</v>
       </c>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="103"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="112"/>
       <c r="AA33" s="77"/>
       <c r="AB33" s="78"/>
       <c r="AC33" s="78"/>
@@ -7509,24 +7513,24 @@
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="106"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="115"/>
       <c r="AA34" s="77"/>
       <c r="AB34" s="78"/>
       <c r="AC34" s="78"/>
@@ -7754,12 +7758,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -7768,6 +7766,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7791,127 +7795,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="124" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="128" t="str">
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="126" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="128"/>
-      <c r="AK1" s="126" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="125" t="str">
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="123" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="124" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="126" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="127">
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="125">
         <f>'0.表紙'!O33</f>
         <v>44538</v>
       </c>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
@@ -7934,77 +7938,77 @@
       <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130" t="s">
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="131" t="s">
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
     </row>
     <row r="5" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="121">
+      <c r="A5" s="122">
         <v>1</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="123">
+      <c r="B5" s="122"/>
+      <c r="C5" s="128">
         <v>44538</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="119" t="s">
         <v>5</v>
       </c>
@@ -8024,45 +8028,45 @@
       <c r="R5" s="119"/>
       <c r="S5" s="119"/>
       <c r="T5" s="119"/>
-      <c r="U5" s="120" t="s">
+      <c r="U5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="120"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="130"/>
+      <c r="AW5" s="130"/>
+      <c r="AX5" s="130"/>
     </row>
     <row r="6" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="121">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="123"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
@@ -8080,43 +8084,43 @@
       <c r="R6" s="119"/>
       <c r="S6" s="119"/>
       <c r="T6" s="119"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="120"/>
-      <c r="AW6" s="120"/>
-      <c r="AX6" s="120"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="130"/>
+      <c r="AP6" s="130"/>
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130"/>
+      <c r="AU6" s="130"/>
+      <c r="AV6" s="130"/>
+      <c r="AW6" s="130"/>
+      <c r="AX6" s="130"/>
     </row>
     <row r="7" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="121">
+      <c r="A7" s="122">
         <v>3</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="119"/>
       <c r="E7" s="119"/>
       <c r="F7" s="119"/>
@@ -8134,43 +8138,43 @@
       <c r="R7" s="119"/>
       <c r="S7" s="119"/>
       <c r="T7" s="119"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120"/>
-      <c r="AX7" s="120"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130"/>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="130"/>
+      <c r="AX7" s="130"/>
     </row>
     <row r="8" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="121">
+      <c r="A8" s="122">
         <v>4</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="119"/>
       <c r="E8" s="119"/>
       <c r="F8" s="119"/>
@@ -8178,7 +8182,7 @@
       <c r="H8" s="119"/>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="119"/>
       <c r="M8" s="119"/>
       <c r="N8" s="119"/>
@@ -8188,43 +8192,43 @@
       <c r="R8" s="119"/>
       <c r="S8" s="119"/>
       <c r="T8" s="119"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="120"/>
-      <c r="AH8" s="120"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="120"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="120"/>
-      <c r="AO8" s="120"/>
-      <c r="AP8" s="120"/>
-      <c r="AQ8" s="120"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="120"/>
-      <c r="AV8" s="120"/>
-      <c r="AW8" s="120"/>
-      <c r="AX8" s="120"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="130"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="130"/>
+      <c r="AJ8" s="130"/>
+      <c r="AK8" s="130"/>
+      <c r="AL8" s="130"/>
+      <c r="AM8" s="130"/>
+      <c r="AN8" s="130"/>
+      <c r="AO8" s="130"/>
+      <c r="AP8" s="130"/>
+      <c r="AQ8" s="130"/>
+      <c r="AR8" s="130"/>
+      <c r="AS8" s="130"/>
+      <c r="AT8" s="130"/>
+      <c r="AU8" s="130"/>
+      <c r="AV8" s="130"/>
+      <c r="AW8" s="130"/>
+      <c r="AX8" s="130"/>
     </row>
     <row r="9" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="121">
+      <c r="A9" s="122">
         <v>5</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
       <c r="F9" s="119"/>
@@ -8232,7 +8236,7 @@
       <c r="H9" s="119"/>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
-      <c r="K9" s="122"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="119"/>
       <c r="M9" s="119"/>
       <c r="N9" s="119"/>
@@ -8242,42 +8246,42 @@
       <c r="R9" s="119"/>
       <c r="S9" s="119"/>
       <c r="T9" s="119"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="120"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="120"/>
-      <c r="AJ9" s="120"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="120"/>
-      <c r="AM9" s="120"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="120"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="120"/>
-      <c r="AX9" s="120"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="130"/>
+      <c r="AL9" s="130"/>
+      <c r="AM9" s="130"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="130"/>
+      <c r="AP9" s="130"/>
+      <c r="AQ9" s="130"/>
+      <c r="AR9" s="130"/>
+      <c r="AS9" s="130"/>
+      <c r="AT9" s="130"/>
+      <c r="AU9" s="130"/>
+      <c r="AV9" s="130"/>
+      <c r="AW9" s="130"/>
+      <c r="AX9" s="130"/>
     </row>
     <row r="10" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="121">
+      <c r="A10" s="122">
         <v>6</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="119"/>
       <c r="D10" s="119"/>
       <c r="E10" s="119"/>
@@ -8296,42 +8300,42 @@
       <c r="R10" s="119"/>
       <c r="S10" s="119"/>
       <c r="T10" s="119"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="120"/>
-      <c r="AW10" s="120"/>
-      <c r="AX10" s="120"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="130"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="130"/>
+      <c r="AW10" s="130"/>
+      <c r="AX10" s="130"/>
     </row>
     <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="121">
+      <c r="A11" s="122">
         <v>7</v>
       </c>
-      <c r="B11" s="121"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="119"/>
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
@@ -8350,42 +8354,42 @@
       <c r="R11" s="119"/>
       <c r="S11" s="119"/>
       <c r="T11" s="119"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="120"/>
-      <c r="AM11" s="120"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
-      <c r="AX11" s="120"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="130"/>
+      <c r="AJ11" s="130"/>
+      <c r="AK11" s="130"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="130"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="130"/>
+      <c r="AV11" s="130"/>
+      <c r="AW11" s="130"/>
+      <c r="AX11" s="130"/>
     </row>
     <row r="12" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="121">
+      <c r="A12" s="122">
         <v>8</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="119"/>
       <c r="D12" s="119"/>
       <c r="E12" s="119"/>
@@ -8404,42 +8408,42 @@
       <c r="R12" s="119"/>
       <c r="S12" s="119"/>
       <c r="T12" s="119"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="120"/>
-      <c r="AO12" s="120"/>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="120"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="130"/>
+      <c r="AU12" s="130"/>
+      <c r="AV12" s="130"/>
+      <c r="AW12" s="130"/>
+      <c r="AX12" s="130"/>
     </row>
     <row r="13" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="121">
+      <c r="A13" s="122">
         <v>9</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="119"/>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
@@ -8458,42 +8462,42 @@
       <c r="R13" s="119"/>
       <c r="S13" s="119"/>
       <c r="T13" s="119"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="120"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="120"/>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="120"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="130"/>
+      <c r="AJ13" s="130"/>
+      <c r="AK13" s="130"/>
+      <c r="AL13" s="130"/>
+      <c r="AM13" s="130"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="130"/>
+      <c r="AP13" s="130"/>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="130"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="130"/>
+      <c r="AU13" s="130"/>
+      <c r="AV13" s="130"/>
+      <c r="AW13" s="130"/>
+      <c r="AX13" s="130"/>
     </row>
     <row r="14" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="121">
+      <c r="A14" s="122">
         <v>10</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="119"/>
       <c r="D14" s="119"/>
       <c r="E14" s="119"/>
@@ -8512,42 +8516,42 @@
       <c r="R14" s="119"/>
       <c r="S14" s="119"/>
       <c r="T14" s="119"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="120"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="120"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="130"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="130"/>
+      <c r="AP14" s="130"/>
+      <c r="AQ14" s="130"/>
+      <c r="AR14" s="130"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="130"/>
+      <c r="AU14" s="130"/>
+      <c r="AV14" s="130"/>
+      <c r="AW14" s="130"/>
+      <c r="AX14" s="130"/>
     </row>
     <row r="15" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="121">
+      <c r="A15" s="122">
         <v>11</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="119"/>
       <c r="D15" s="119"/>
       <c r="E15" s="119"/>
@@ -8566,42 +8570,42 @@
       <c r="R15" s="119"/>
       <c r="S15" s="119"/>
       <c r="T15" s="119"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="120"/>
-      <c r="AN15" s="120"/>
-      <c r="AO15" s="120"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="130"/>
+      <c r="AP15" s="130"/>
+      <c r="AQ15" s="130"/>
+      <c r="AR15" s="130"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="130"/>
+      <c r="AU15" s="130"/>
+      <c r="AV15" s="130"/>
+      <c r="AW15" s="130"/>
+      <c r="AX15" s="130"/>
     </row>
     <row r="16" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="121">
+      <c r="A16" s="122">
         <v>12</v>
       </c>
-      <c r="B16" s="121"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="119"/>
       <c r="D16" s="119"/>
       <c r="E16" s="119"/>
@@ -8620,42 +8624,42 @@
       <c r="R16" s="119"/>
       <c r="S16" s="119"/>
       <c r="T16" s="119"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
-      <c r="AU16" s="120"/>
-      <c r="AV16" s="120"/>
-      <c r="AW16" s="120"/>
-      <c r="AX16" s="120"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="130"/>
+      <c r="AP16" s="130"/>
+      <c r="AQ16" s="130"/>
+      <c r="AR16" s="130"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="130"/>
+      <c r="AU16" s="130"/>
+      <c r="AV16" s="130"/>
+      <c r="AW16" s="130"/>
+      <c r="AX16" s="130"/>
     </row>
     <row r="17" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="121">
+      <c r="A17" s="122">
         <v>13</v>
       </c>
-      <c r="B17" s="121"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="119"/>
       <c r="D17" s="119"/>
       <c r="E17" s="119"/>
@@ -8674,42 +8678,42 @@
       <c r="R17" s="119"/>
       <c r="S17" s="119"/>
       <c r="T17" s="119"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="120"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="120"/>
-      <c r="AM17" s="120"/>
-      <c r="AN17" s="120"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
-      <c r="AR17" s="120"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="120"/>
-      <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
-      <c r="AX17" s="120"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="130"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="130"/>
+      <c r="AU17" s="130"/>
+      <c r="AV17" s="130"/>
+      <c r="AW17" s="130"/>
+      <c r="AX17" s="130"/>
     </row>
     <row r="18" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="121">
+      <c r="A18" s="122">
         <v>14</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="119"/>
       <c r="D18" s="119"/>
       <c r="E18" s="119"/>
@@ -8728,42 +8732,42 @@
       <c r="R18" s="119"/>
       <c r="S18" s="119"/>
       <c r="T18" s="119"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="120"/>
-      <c r="AN18" s="120"/>
-      <c r="AO18" s="120"/>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="120"/>
-      <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
-      <c r="AX18" s="120"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="130"/>
+      <c r="AC18" s="130"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="130"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="130"/>
+      <c r="AL18" s="130"/>
+      <c r="AM18" s="130"/>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="130"/>
+      <c r="AP18" s="130"/>
+      <c r="AQ18" s="130"/>
+      <c r="AR18" s="130"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="130"/>
+      <c r="AU18" s="130"/>
+      <c r="AV18" s="130"/>
+      <c r="AW18" s="130"/>
+      <c r="AX18" s="130"/>
     </row>
     <row r="19" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="121">
+      <c r="A19" s="122">
         <v>15</v>
       </c>
-      <c r="B19" s="121"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="119"/>
       <c r="D19" s="119"/>
       <c r="E19" s="119"/>
@@ -8782,42 +8786,42 @@
       <c r="R19" s="119"/>
       <c r="S19" s="119"/>
       <c r="T19" s="119"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
-      <c r="AX19" s="120"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="130"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="130"/>
+      <c r="AJ19" s="130"/>
+      <c r="AK19" s="130"/>
+      <c r="AL19" s="130"/>
+      <c r="AM19" s="130"/>
+      <c r="AN19" s="130"/>
+      <c r="AO19" s="130"/>
+      <c r="AP19" s="130"/>
+      <c r="AQ19" s="130"/>
+      <c r="AR19" s="130"/>
+      <c r="AS19" s="130"/>
+      <c r="AT19" s="130"/>
+      <c r="AU19" s="130"/>
+      <c r="AV19" s="130"/>
+      <c r="AW19" s="130"/>
+      <c r="AX19" s="130"/>
     </row>
     <row r="20" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="121">
+      <c r="A20" s="122">
         <v>16</v>
       </c>
-      <c r="B20" s="121"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="119"/>
       <c r="D20" s="119"/>
       <c r="E20" s="119"/>
@@ -8836,99 +8840,99 @@
       <c r="R20" s="119"/>
       <c r="S20" s="119"/>
       <c r="T20" s="119"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
-      <c r="AC20" s="120"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="120"/>
-      <c r="AH20" s="120"/>
-      <c r="AI20" s="120"/>
-      <c r="AJ20" s="120"/>
-      <c r="AK20" s="120"/>
-      <c r="AL20" s="120"/>
-      <c r="AM20" s="120"/>
-      <c r="AN20" s="120"/>
-      <c r="AO20" s="120"/>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="120"/>
-      <c r="AR20" s="120"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="120"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
-      <c r="AX20" s="120"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="130"/>
+      <c r="AC20" s="130"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="130"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="130"/>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="130"/>
+      <c r="AP20" s="130"/>
+      <c r="AQ20" s="130"/>
+      <c r="AR20" s="130"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="130"/>
+      <c r="AU20" s="130"/>
+      <c r="AV20" s="130"/>
+      <c r="AW20" s="130"/>
+      <c r="AX20" s="130"/>
     </row>
     <row r="21" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="129">
+      <c r="A21" s="127">
         <v>17</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="118"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="118"/>
-      <c r="AU21" s="118"/>
-      <c r="AV21" s="118"/>
-      <c r="AW21" s="118"/>
-      <c r="AX21" s="118"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="133"/>
+      <c r="AJ21" s="133"/>
+      <c r="AK21" s="133"/>
+      <c r="AL21" s="133"/>
+      <c r="AM21" s="133"/>
+      <c r="AN21" s="133"/>
+      <c r="AO21" s="133"/>
+      <c r="AP21" s="133"/>
+      <c r="AQ21" s="133"/>
+      <c r="AR21" s="133"/>
+      <c r="AS21" s="133"/>
+      <c r="AT21" s="133"/>
+      <c r="AU21" s="133"/>
+      <c r="AV21" s="133"/>
+      <c r="AW21" s="133"/>
+      <c r="AX21" s="133"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -8941,13 +8945,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -8960,13 +8964,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -8979,13 +8983,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -8998,13 +9002,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9017,13 +9021,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -9036,13 +9040,13 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -9055,13 +9059,13 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -9074,13 +9078,13 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -9093,13 +9097,13 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -9112,13 +9116,13 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -9131,13 +9135,13 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -9150,13 +9154,13 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -9169,13 +9173,13 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="117"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -9188,13 +9192,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -9207,13 +9211,13 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -9226,13 +9230,13 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -9245,13 +9249,13 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -9265,46 +9269,95 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AX21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AX19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AX20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AX18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="U5:AX5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AX6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AX8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AX10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AX7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AX9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="S1:AJ1"/>
+    <mergeCell ref="S2:AJ2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:Q40"/>
@@ -9329,95 +9382,46 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="S1:AJ1"/>
-    <mergeCell ref="S2:AJ2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="U5:AX5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AX6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AX8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AX10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AX7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AX9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AX18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AX21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AX20"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9449,133 +9453,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="138" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="139" t="str">
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="151" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="140" t="s">
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="144"/>
-      <c r="AO1" s="149" t="s">
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="142" t="s">
+      <c r="AP1" s="145"/>
+      <c r="AQ1" s="145"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="144"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="137"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="137"/>
+      <c r="AX1" s="138"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="138" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="140" t="s">
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="148">
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="143">
         <v>44538</v>
       </c>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="149" t="s">
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="150"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="148">
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="145"/>
+      <c r="AR2" s="146"/>
+      <c r="AS2" s="143">
         <v>44538</v>
       </c>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="144"/>
+      <c r="AT2" s="137"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="138"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
@@ -10978,21 +10982,21 @@
       <c r="J34" s="81"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="146"/>
-      <c r="X34" s="146"/>
-      <c r="Y34" s="146"/>
-      <c r="Z34" s="146"/>
-      <c r="AA34" s="146"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="135"/>
+      <c r="T34" s="135"/>
+      <c r="U34" s="135"/>
+      <c r="V34" s="135"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="135"/>
+      <c r="Y34" s="135"/>
+      <c r="Z34" s="135"/>
+      <c r="AA34" s="135"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -11119,6 +11123,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="Q34:AA34"/>
     <mergeCell ref="AS1:AX1"/>
@@ -11129,11 +11138,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11156,153 +11160,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="184" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="164" t="str">
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="162" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="188" t="s">
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="164" t="s">
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="167"/>
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
+      <c r="AN1" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
-      <c r="AS1" s="164"/>
-      <c r="AT1" s="164"/>
-      <c r="AU1" s="188" t="s">
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="164" t="s">
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
+      <c r="BB1" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="164"/>
-      <c r="BD1" s="164"/>
-      <c r="BE1" s="164"/>
-      <c r="BF1" s="164"/>
-      <c r="BG1" s="164"/>
-      <c r="BH1" s="164"/>
+      <c r="BC1" s="162"/>
+      <c r="BD1" s="162"/>
+      <c r="BE1" s="162"/>
+      <c r="BF1" s="162"/>
+      <c r="BG1" s="162"/>
+      <c r="BH1" s="162"/>
     </row>
     <row r="2" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="191"/>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="184" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="189" t="s">
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="187">
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="166">
         <v>44538</v>
       </c>
-      <c r="AO2" s="187"/>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="187"/>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="187"/>
-      <c r="AT2" s="187"/>
-      <c r="AU2" s="189" t="s">
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="187">
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="166">
         <v>44538</v>
       </c>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="187"/>
-      <c r="BH2" s="187"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
     </row>
     <row r="3" spans="1:93" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
@@ -11367,80 +11371,80 @@
       <c r="BH3" s="10"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190" t="s">
+      <c r="B4" s="169"/>
+      <c r="C4" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="174" t="s">
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174" t="s">
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="174"/>
-      <c r="AF4" s="174"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="174"/>
-      <c r="AI4" s="174"/>
-      <c r="AJ4" s="174"/>
-      <c r="AK4" s="174"/>
-      <c r="AL4" s="174"/>
-      <c r="AM4" s="174"/>
-      <c r="AN4" s="174"/>
-      <c r="AO4" s="174"/>
-      <c r="AP4" s="174"/>
-      <c r="AQ4" s="174"/>
-      <c r="AR4" s="174"/>
-      <c r="AS4" s="186" t="s">
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="AT4" s="186"/>
-      <c r="AU4" s="186"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="186"/>
-      <c r="AY4" s="186"/>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="186"/>
-      <c r="BB4" s="186"/>
-      <c r="BC4" s="186"/>
-      <c r="BD4" s="186"/>
-      <c r="BE4" s="186"/>
-      <c r="BF4" s="186"/>
-      <c r="BG4" s="186"/>
-      <c r="BH4" s="186"/>
+      <c r="AT4" s="164"/>
+      <c r="AU4" s="164"/>
+      <c r="AV4" s="164"/>
+      <c r="AW4" s="164"/>
+      <c r="AX4" s="164"/>
+      <c r="AY4" s="164"/>
+      <c r="AZ4" s="164"/>
+      <c r="BA4" s="164"/>
+      <c r="BB4" s="164"/>
+      <c r="BC4" s="164"/>
+      <c r="BD4" s="164"/>
+      <c r="BE4" s="164"/>
+      <c r="BF4" s="164"/>
+      <c r="BG4" s="164"/>
+      <c r="BH4" s="164"/>
       <c r="BJ4" s="18"/>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18"/>
@@ -11475,76 +11479,76 @@
       <c r="CO4" s="18"/>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="190"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="185" t="s">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="174" t="s">
+      <c r="T5" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174" t="s">
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174" t="s">
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="174"/>
-      <c r="AH5" s="174"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174" t="s">
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
+      <c r="AK5" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="174"/>
-      <c r="AN5" s="174"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="174"/>
-      <c r="AQ5" s="174"/>
-      <c r="AR5" s="174"/>
-      <c r="AS5" s="186"/>
-      <c r="AT5" s="186"/>
-      <c r="AU5" s="186"/>
-      <c r="AV5" s="186"/>
-      <c r="AW5" s="186"/>
-      <c r="AX5" s="186"/>
-      <c r="AY5" s="186"/>
-      <c r="AZ5" s="186"/>
-      <c r="BA5" s="186"/>
-      <c r="BB5" s="186"/>
-      <c r="BC5" s="186"/>
-      <c r="BD5" s="186"/>
-      <c r="BE5" s="186"/>
-      <c r="BF5" s="186"/>
-      <c r="BG5" s="186"/>
-      <c r="BH5" s="186"/>
+      <c r="AL5" s="163"/>
+      <c r="AM5" s="163"/>
+      <c r="AN5" s="163"/>
+      <c r="AO5" s="163"/>
+      <c r="AP5" s="163"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="163"/>
+      <c r="AS5" s="164"/>
+      <c r="AT5" s="164"/>
+      <c r="AU5" s="164"/>
+      <c r="AV5" s="164"/>
+      <c r="AW5" s="164"/>
+      <c r="AX5" s="164"/>
+      <c r="AY5" s="164"/>
+      <c r="AZ5" s="164"/>
+      <c r="BA5" s="164"/>
+      <c r="BB5" s="164"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="164"/>
+      <c r="BE5" s="164"/>
+      <c r="BF5" s="164"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="164"/>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="18"/>
       <c r="BL5" s="18"/>
@@ -11579,70 +11583,70 @@
       <c r="CO5" s="18"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
-      <c r="Y6" s="174" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="174" t="s">
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="174"/>
-      <c r="AI6" s="174"/>
-      <c r="AJ6" s="174"/>
-      <c r="AK6" s="174"/>
-      <c r="AL6" s="174"/>
-      <c r="AM6" s="174"/>
-      <c r="AN6" s="174"/>
-      <c r="AO6" s="174"/>
-      <c r="AP6" s="174"/>
-      <c r="AQ6" s="174"/>
-      <c r="AR6" s="174"/>
-      <c r="AS6" s="186"/>
-      <c r="AT6" s="186"/>
-      <c r="AU6" s="186"/>
-      <c r="AV6" s="186"/>
-      <c r="AW6" s="186"/>
-      <c r="AX6" s="186"/>
-      <c r="AY6" s="186"/>
-      <c r="AZ6" s="186"/>
-      <c r="BA6" s="186"/>
-      <c r="BB6" s="186"/>
-      <c r="BC6" s="186"/>
-      <c r="BD6" s="186"/>
-      <c r="BE6" s="186"/>
-      <c r="BF6" s="186"/>
-      <c r="BG6" s="186"/>
-      <c r="BH6" s="186"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="163"/>
+      <c r="AM6" s="163"/>
+      <c r="AN6" s="163"/>
+      <c r="AO6" s="163"/>
+      <c r="AP6" s="163"/>
+      <c r="AQ6" s="163"/>
+      <c r="AR6" s="163"/>
+      <c r="AS6" s="164"/>
+      <c r="AT6" s="164"/>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="164"/>
+      <c r="AW6" s="164"/>
+      <c r="AX6" s="164"/>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="164"/>
+      <c r="BA6" s="164"/>
+      <c r="BB6" s="164"/>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="164"/>
+      <c r="BE6" s="164"/>
+      <c r="BF6" s="164"/>
+      <c r="BG6" s="164"/>
+      <c r="BH6" s="164"/>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18"/>
@@ -11677,88 +11681,88 @@
       <c r="CO6" s="18"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="155">
+      <c r="A7" s="152">
         <v>1</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="163" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163" t="s">
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="164" t="s">
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="164"/>
+      <c r="R7" s="162"/>
       <c r="S7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="164" t="s">
+      <c r="T7" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164">
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162">
         <v>6</v>
       </c>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164" t="s">
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164" t="s">
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175" t="s">
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="AL7" s="175"/>
-      <c r="AM7" s="175"/>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="162" t="s">
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
+      <c r="AN7" s="182"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT7" s="162"/>
-      <c r="AU7" s="162"/>
-      <c r="AV7" s="162"/>
-      <c r="AW7" s="162"/>
-      <c r="AX7" s="162"/>
-      <c r="AY7" s="162"/>
-      <c r="AZ7" s="162"/>
-      <c r="BA7" s="162"/>
-      <c r="BB7" s="162"/>
-      <c r="BC7" s="162"/>
-      <c r="BD7" s="162"/>
-      <c r="BE7" s="162"/>
-      <c r="BF7" s="162"/>
-      <c r="BG7" s="162"/>
-      <c r="BH7" s="162"/>
+      <c r="AT7" s="189"/>
+      <c r="AU7" s="189"/>
+      <c r="AV7" s="189"/>
+      <c r="AW7" s="189"/>
+      <c r="AX7" s="189"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="189"/>
+      <c r="BA7" s="189"/>
+      <c r="BB7" s="189"/>
+      <c r="BC7" s="189"/>
+      <c r="BD7" s="189"/>
+      <c r="BE7" s="189"/>
+      <c r="BF7" s="189"/>
+      <c r="BG7" s="189"/>
+      <c r="BH7" s="189"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="18"/>
       <c r="BK7" s="18"/>
@@ -11794,32 +11798,32 @@
       <c r="CO7" s="18"/>
     </row>
     <row r="8" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="155">
+      <c r="A8" s="152">
         <v>2</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="192" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="194"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
       <c r="M8" s="156" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="157"/>
       <c r="O8" s="157"/>
       <c r="P8" s="158"/>
-      <c r="Q8" s="164" t="s">
+      <c r="Q8" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="164"/>
+      <c r="R8" s="162"/>
       <c r="S8" s="100" t="s">
         <v>46</v>
       </c>
@@ -11848,34 +11852,34 @@
       <c r="AH8" s="161"/>
       <c r="AI8" s="161"/>
       <c r="AJ8" s="160"/>
-      <c r="AK8" s="178" t="s">
+      <c r="AK8" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="179"/>
-      <c r="AN8" s="179"/>
-      <c r="AO8" s="179"/>
-      <c r="AP8" s="179"/>
-      <c r="AQ8" s="179"/>
-      <c r="AR8" s="180"/>
-      <c r="AS8" s="152" t="s">
+      <c r="AL8" s="184"/>
+      <c r="AM8" s="184"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="184"/>
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184"/>
+      <c r="AR8" s="185"/>
+      <c r="AS8" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT8" s="153"/>
-      <c r="AU8" s="153"/>
-      <c r="AV8" s="153"/>
-      <c r="AW8" s="153"/>
-      <c r="AX8" s="153"/>
-      <c r="AY8" s="153"/>
-      <c r="AZ8" s="153"/>
-      <c r="BA8" s="153"/>
-      <c r="BB8" s="153"/>
-      <c r="BC8" s="153"/>
-      <c r="BD8" s="153"/>
-      <c r="BE8" s="153"/>
-      <c r="BF8" s="153"/>
-      <c r="BG8" s="153"/>
-      <c r="BH8" s="154"/>
+      <c r="AT8" s="177"/>
+      <c r="AU8" s="177"/>
+      <c r="AV8" s="177"/>
+      <c r="AW8" s="177"/>
+      <c r="AX8" s="177"/>
+      <c r="AY8" s="177"/>
+      <c r="AZ8" s="177"/>
+      <c r="BA8" s="177"/>
+      <c r="BB8" s="177"/>
+      <c r="BC8" s="177"/>
+      <c r="BD8" s="177"/>
+      <c r="BE8" s="177"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="178"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="18"/>
       <c r="BK8" s="18"/>
@@ -11911,32 +11915,32 @@
       <c r="CO8" s="18"/>
     </row>
     <row r="9" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="155">
+      <c r="A9" s="152">
         <v>3</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="192" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="194"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="155"/>
       <c r="M9" s="156" t="s">
         <v>28</v>
       </c>
       <c r="N9" s="157"/>
       <c r="O9" s="157"/>
       <c r="P9" s="158"/>
-      <c r="Q9" s="164" t="s">
+      <c r="Q9" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="164"/>
+      <c r="R9" s="162"/>
       <c r="S9" s="100" t="s">
         <v>46</v>
       </c>
@@ -11965,34 +11969,34 @@
       <c r="AH9" s="161"/>
       <c r="AI9" s="161"/>
       <c r="AJ9" s="160"/>
-      <c r="AK9" s="178" t="s">
+      <c r="AK9" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="179"/>
-      <c r="AM9" s="179"/>
-      <c r="AN9" s="179"/>
-      <c r="AO9" s="179"/>
-      <c r="AP9" s="179"/>
-      <c r="AQ9" s="179"/>
-      <c r="AR9" s="180"/>
-      <c r="AS9" s="152" t="s">
+      <c r="AL9" s="184"/>
+      <c r="AM9" s="184"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="184"/>
+      <c r="AP9" s="184"/>
+      <c r="AQ9" s="184"/>
+      <c r="AR9" s="185"/>
+      <c r="AS9" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="153"/>
-      <c r="AV9" s="153"/>
-      <c r="AW9" s="153"/>
-      <c r="AX9" s="153"/>
-      <c r="AY9" s="153"/>
-      <c r="AZ9" s="153"/>
-      <c r="BA9" s="153"/>
-      <c r="BB9" s="153"/>
-      <c r="BC9" s="153"/>
-      <c r="BD9" s="153"/>
-      <c r="BE9" s="153"/>
-      <c r="BF9" s="153"/>
-      <c r="BG9" s="153"/>
-      <c r="BH9" s="154"/>
+      <c r="AT9" s="177"/>
+      <c r="AU9" s="177"/>
+      <c r="AV9" s="177"/>
+      <c r="AW9" s="177"/>
+      <c r="AX9" s="177"/>
+      <c r="AY9" s="177"/>
+      <c r="AZ9" s="177"/>
+      <c r="BA9" s="177"/>
+      <c r="BB9" s="177"/>
+      <c r="BC9" s="177"/>
+      <c r="BD9" s="177"/>
+      <c r="BE9" s="177"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="178"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="18"/>
       <c r="BK9" s="18"/>
@@ -12028,32 +12032,32 @@
       <c r="CO9" s="18"/>
     </row>
     <row r="10" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="155">
+      <c r="A10" s="152">
         <v>4</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="192" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="194"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
       <c r="M10" s="156" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="157"/>
       <c r="O10" s="157"/>
       <c r="P10" s="158"/>
-      <c r="Q10" s="164" t="s">
+      <c r="Q10" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="164"/>
+      <c r="R10" s="162"/>
       <c r="S10" s="100" t="s">
         <v>46</v>
       </c>
@@ -12082,34 +12086,34 @@
       <c r="AH10" s="161"/>
       <c r="AI10" s="161"/>
       <c r="AJ10" s="160"/>
-      <c r="AK10" s="181" t="s">
+      <c r="AK10" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="AL10" s="182"/>
-      <c r="AM10" s="182"/>
-      <c r="AN10" s="182"/>
-      <c r="AO10" s="182"/>
-      <c r="AP10" s="182"/>
-      <c r="AQ10" s="182"/>
-      <c r="AR10" s="183"/>
-      <c r="AS10" s="152" t="s">
+      <c r="AL10" s="187"/>
+      <c r="AM10" s="187"/>
+      <c r="AN10" s="187"/>
+      <c r="AO10" s="187"/>
+      <c r="AP10" s="187"/>
+      <c r="AQ10" s="187"/>
+      <c r="AR10" s="188"/>
+      <c r="AS10" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT10" s="153"/>
-      <c r="AU10" s="153"/>
-      <c r="AV10" s="153"/>
-      <c r="AW10" s="153"/>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="153"/>
-      <c r="BB10" s="153"/>
-      <c r="BC10" s="153"/>
-      <c r="BD10" s="153"/>
-      <c r="BE10" s="153"/>
-      <c r="BF10" s="153"/>
-      <c r="BG10" s="153"/>
-      <c r="BH10" s="154"/>
+      <c r="AT10" s="177"/>
+      <c r="AU10" s="177"/>
+      <c r="AV10" s="177"/>
+      <c r="AW10" s="177"/>
+      <c r="AX10" s="177"/>
+      <c r="AY10" s="177"/>
+      <c r="AZ10" s="177"/>
+      <c r="BA10" s="177"/>
+      <c r="BB10" s="177"/>
+      <c r="BC10" s="177"/>
+      <c r="BD10" s="177"/>
+      <c r="BE10" s="177"/>
+      <c r="BF10" s="177"/>
+      <c r="BG10" s="177"/>
+      <c r="BH10" s="178"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="18"/>
       <c r="BK10" s="18"/>
@@ -12145,32 +12149,32 @@
       <c r="CO10" s="18"/>
     </row>
     <row r="11" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="155">
+      <c r="A11" s="152">
         <v>5</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="192" t="s">
+      <c r="B11" s="152"/>
+      <c r="C11" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="194"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="155"/>
       <c r="M11" s="156" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="157"/>
       <c r="O11" s="157"/>
       <c r="P11" s="158"/>
-      <c r="Q11" s="164" t="s">
+      <c r="Q11" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="164"/>
+      <c r="R11" s="162"/>
       <c r="S11" s="100" t="s">
         <v>46</v>
       </c>
@@ -12199,34 +12203,34 @@
       <c r="AH11" s="161"/>
       <c r="AI11" s="161"/>
       <c r="AJ11" s="160"/>
-      <c r="AK11" s="178" t="s">
+      <c r="AK11" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="AL11" s="179"/>
-      <c r="AM11" s="179"/>
-      <c r="AN11" s="179"/>
-      <c r="AO11" s="179"/>
-      <c r="AP11" s="179"/>
-      <c r="AQ11" s="179"/>
-      <c r="AR11" s="180"/>
-      <c r="AS11" s="152" t="s">
+      <c r="AL11" s="184"/>
+      <c r="AM11" s="184"/>
+      <c r="AN11" s="184"/>
+      <c r="AO11" s="184"/>
+      <c r="AP11" s="184"/>
+      <c r="AQ11" s="184"/>
+      <c r="AR11" s="185"/>
+      <c r="AS11" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT11" s="153"/>
-      <c r="AU11" s="153"/>
-      <c r="AV11" s="153"/>
-      <c r="AW11" s="153"/>
-      <c r="AX11" s="153"/>
-      <c r="AY11" s="153"/>
-      <c r="AZ11" s="153"/>
-      <c r="BA11" s="153"/>
-      <c r="BB11" s="153"/>
-      <c r="BC11" s="153"/>
-      <c r="BD11" s="153"/>
-      <c r="BE11" s="153"/>
-      <c r="BF11" s="153"/>
-      <c r="BG11" s="153"/>
-      <c r="BH11" s="154"/>
+      <c r="AT11" s="177"/>
+      <c r="AU11" s="177"/>
+      <c r="AV11" s="177"/>
+      <c r="AW11" s="177"/>
+      <c r="AX11" s="177"/>
+      <c r="AY11" s="177"/>
+      <c r="AZ11" s="177"/>
+      <c r="BA11" s="177"/>
+      <c r="BB11" s="177"/>
+      <c r="BC11" s="177"/>
+      <c r="BD11" s="177"/>
+      <c r="BE11" s="177"/>
+      <c r="BF11" s="177"/>
+      <c r="BG11" s="177"/>
+      <c r="BH11" s="178"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="18"/>
       <c r="BK11" s="18"/>
@@ -12262,10 +12266,10 @@
       <c r="CO11" s="18"/>
     </row>
     <row r="12" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="155">
+      <c r="A12" s="152">
         <v>6</v>
       </c>
-      <c r="B12" s="155"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="156" t="s">
         <v>82</v>
       </c>
@@ -12284,10 +12288,10 @@
       <c r="N12" s="157"/>
       <c r="O12" s="157"/>
       <c r="P12" s="158"/>
-      <c r="Q12" s="164" t="s">
+      <c r="Q12" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="164"/>
+      <c r="R12" s="162"/>
       <c r="S12" s="100" t="s">
         <v>46</v>
       </c>
@@ -12316,34 +12320,34 @@
       <c r="AH12" s="161"/>
       <c r="AI12" s="161"/>
       <c r="AJ12" s="160"/>
-      <c r="AK12" s="168" t="s">
+      <c r="AK12" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="169"/>
-      <c r="AN12" s="169"/>
-      <c r="AO12" s="169"/>
-      <c r="AP12" s="169"/>
-      <c r="AQ12" s="169"/>
-      <c r="AR12" s="170"/>
-      <c r="AS12" s="152" t="s">
+      <c r="AL12" s="174"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="174"/>
+      <c r="AO12" s="174"/>
+      <c r="AP12" s="174"/>
+      <c r="AQ12" s="174"/>
+      <c r="AR12" s="175"/>
+      <c r="AS12" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="153"/>
-      <c r="AZ12" s="153"/>
-      <c r="BA12" s="153"/>
-      <c r="BB12" s="153"/>
-      <c r="BC12" s="153"/>
-      <c r="BD12" s="153"/>
-      <c r="BE12" s="153"/>
-      <c r="BF12" s="153"/>
-      <c r="BG12" s="153"/>
-      <c r="BH12" s="154"/>
+      <c r="AT12" s="177"/>
+      <c r="AU12" s="177"/>
+      <c r="AV12" s="177"/>
+      <c r="AW12" s="177"/>
+      <c r="AX12" s="177"/>
+      <c r="AY12" s="177"/>
+      <c r="AZ12" s="177"/>
+      <c r="BA12" s="177"/>
+      <c r="BB12" s="177"/>
+      <c r="BC12" s="177"/>
+      <c r="BD12" s="177"/>
+      <c r="BE12" s="177"/>
+      <c r="BF12" s="177"/>
+      <c r="BG12" s="177"/>
+      <c r="BH12" s="178"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="18"/>
       <c r="BK12" s="18"/>
@@ -12379,10 +12383,10 @@
       <c r="CO12" s="18"/>
     </row>
     <row r="13" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="155">
+      <c r="A13" s="152">
         <v>7</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="156" t="s">
         <v>83</v>
       </c>
@@ -12401,10 +12405,10 @@
       <c r="N13" s="157"/>
       <c r="O13" s="157"/>
       <c r="P13" s="158"/>
-      <c r="Q13" s="164" t="s">
+      <c r="Q13" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="164"/>
+      <c r="R13" s="162"/>
       <c r="S13" s="100" t="s">
         <v>46</v>
       </c>
@@ -12433,34 +12437,34 @@
       <c r="AH13" s="161"/>
       <c r="AI13" s="161"/>
       <c r="AJ13" s="160"/>
-      <c r="AK13" s="168" t="s">
+      <c r="AK13" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="AL13" s="169"/>
-      <c r="AM13" s="169"/>
-      <c r="AN13" s="169"/>
-      <c r="AO13" s="169"/>
-      <c r="AP13" s="169"/>
-      <c r="AQ13" s="169"/>
-      <c r="AR13" s="170"/>
-      <c r="AS13" s="152" t="s">
+      <c r="AL13" s="174"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="174"/>
+      <c r="AO13" s="174"/>
+      <c r="AP13" s="174"/>
+      <c r="AQ13" s="174"/>
+      <c r="AR13" s="175"/>
+      <c r="AS13" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT13" s="153"/>
-      <c r="AU13" s="153"/>
-      <c r="AV13" s="153"/>
-      <c r="AW13" s="153"/>
-      <c r="AX13" s="153"/>
-      <c r="AY13" s="153"/>
-      <c r="AZ13" s="153"/>
-      <c r="BA13" s="153"/>
-      <c r="BB13" s="153"/>
-      <c r="BC13" s="153"/>
-      <c r="BD13" s="153"/>
-      <c r="BE13" s="153"/>
-      <c r="BF13" s="153"/>
-      <c r="BG13" s="153"/>
-      <c r="BH13" s="154"/>
+      <c r="AT13" s="177"/>
+      <c r="AU13" s="177"/>
+      <c r="AV13" s="177"/>
+      <c r="AW13" s="177"/>
+      <c r="AX13" s="177"/>
+      <c r="AY13" s="177"/>
+      <c r="AZ13" s="177"/>
+      <c r="BA13" s="177"/>
+      <c r="BB13" s="177"/>
+      <c r="BC13" s="177"/>
+      <c r="BD13" s="177"/>
+      <c r="BE13" s="177"/>
+      <c r="BF13" s="177"/>
+      <c r="BG13" s="177"/>
+      <c r="BH13" s="178"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="18"/>
       <c r="BK13" s="18"/>
@@ -12496,10 +12500,10 @@
       <c r="CO13" s="18"/>
     </row>
     <row r="14" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="155">
+      <c r="A14" s="152">
         <v>8</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="156" t="s">
         <v>84</v>
       </c>
@@ -12518,10 +12522,10 @@
       <c r="N14" s="157"/>
       <c r="O14" s="157"/>
       <c r="P14" s="158"/>
-      <c r="Q14" s="164" t="s">
+      <c r="Q14" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="164"/>
+      <c r="R14" s="162"/>
       <c r="S14" s="100" t="s">
         <v>46</v>
       </c>
@@ -12550,34 +12554,34 @@
       <c r="AH14" s="161"/>
       <c r="AI14" s="161"/>
       <c r="AJ14" s="160"/>
-      <c r="AK14" s="168" t="s">
+      <c r="AK14" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="AL14" s="169"/>
-      <c r="AM14" s="169"/>
-      <c r="AN14" s="169"/>
-      <c r="AO14" s="169"/>
-      <c r="AP14" s="169"/>
-      <c r="AQ14" s="169"/>
-      <c r="AR14" s="170"/>
-      <c r="AS14" s="152" t="s">
+      <c r="AL14" s="174"/>
+      <c r="AM14" s="174"/>
+      <c r="AN14" s="174"/>
+      <c r="AO14" s="174"/>
+      <c r="AP14" s="174"/>
+      <c r="AQ14" s="174"/>
+      <c r="AR14" s="175"/>
+      <c r="AS14" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT14" s="153"/>
-      <c r="AU14" s="153"/>
-      <c r="AV14" s="153"/>
-      <c r="AW14" s="153"/>
-      <c r="AX14" s="153"/>
-      <c r="AY14" s="153"/>
-      <c r="AZ14" s="153"/>
-      <c r="BA14" s="153"/>
-      <c r="BB14" s="153"/>
-      <c r="BC14" s="153"/>
-      <c r="BD14" s="153"/>
-      <c r="BE14" s="153"/>
-      <c r="BF14" s="153"/>
-      <c r="BG14" s="153"/>
-      <c r="BH14" s="154"/>
+      <c r="AT14" s="177"/>
+      <c r="AU14" s="177"/>
+      <c r="AV14" s="177"/>
+      <c r="AW14" s="177"/>
+      <c r="AX14" s="177"/>
+      <c r="AY14" s="177"/>
+      <c r="AZ14" s="177"/>
+      <c r="BA14" s="177"/>
+      <c r="BB14" s="177"/>
+      <c r="BC14" s="177"/>
+      <c r="BD14" s="177"/>
+      <c r="BE14" s="177"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="178"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="18"/>
       <c r="BK14" s="18"/>
@@ -12613,10 +12617,10 @@
       <c r="CO14" s="18"/>
     </row>
     <row r="15" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="155">
+      <c r="A15" s="152">
         <v>9</v>
       </c>
-      <c r="B15" s="155"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="156" t="s">
         <v>81</v>
       </c>
@@ -12635,10 +12639,10 @@
       <c r="N15" s="157"/>
       <c r="O15" s="157"/>
       <c r="P15" s="158"/>
-      <c r="Q15" s="164" t="s">
+      <c r="Q15" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="164"/>
+      <c r="R15" s="162"/>
       <c r="S15" s="100" t="s">
         <v>46</v>
       </c>
@@ -12667,34 +12671,34 @@
       <c r="AH15" s="161"/>
       <c r="AI15" s="161"/>
       <c r="AJ15" s="160"/>
-      <c r="AK15" s="168" t="s">
+      <c r="AK15" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="AL15" s="169"/>
-      <c r="AM15" s="169"/>
-      <c r="AN15" s="169"/>
-      <c r="AO15" s="169"/>
-      <c r="AP15" s="169"/>
-      <c r="AQ15" s="169"/>
-      <c r="AR15" s="170"/>
-      <c r="AS15" s="171" t="s">
+      <c r="AL15" s="174"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="174"/>
+      <c r="AO15" s="174"/>
+      <c r="AP15" s="174"/>
+      <c r="AQ15" s="174"/>
+      <c r="AR15" s="175"/>
+      <c r="AS15" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="AT15" s="172"/>
-      <c r="AU15" s="172"/>
-      <c r="AV15" s="172"/>
-      <c r="AW15" s="172"/>
-      <c r="AX15" s="172"/>
-      <c r="AY15" s="172"/>
-      <c r="AZ15" s="172"/>
-      <c r="BA15" s="172"/>
-      <c r="BB15" s="172"/>
-      <c r="BC15" s="172"/>
-      <c r="BD15" s="172"/>
-      <c r="BE15" s="172"/>
-      <c r="BF15" s="172"/>
-      <c r="BG15" s="172"/>
-      <c r="BH15" s="173"/>
+      <c r="AT15" s="180"/>
+      <c r="AU15" s="180"/>
+      <c r="AV15" s="180"/>
+      <c r="AW15" s="180"/>
+      <c r="AX15" s="180"/>
+      <c r="AY15" s="180"/>
+      <c r="AZ15" s="180"/>
+      <c r="BA15" s="180"/>
+      <c r="BB15" s="180"/>
+      <c r="BC15" s="180"/>
+      <c r="BD15" s="180"/>
+      <c r="BE15" s="180"/>
+      <c r="BF15" s="180"/>
+      <c r="BG15" s="180"/>
+      <c r="BH15" s="181"/>
       <c r="BJ15" s="18"/>
       <c r="BK15" s="18"/>
       <c r="BL15" s="18"/>
@@ -12729,10 +12733,10 @@
       <c r="CO15" s="18"/>
     </row>
     <row r="16" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="155">
+      <c r="A16" s="152">
         <v>10</v>
       </c>
-      <c r="B16" s="155"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="156" t="s">
         <v>85</v>
       </c>
@@ -12751,10 +12755,10 @@
       <c r="N16" s="157"/>
       <c r="O16" s="157"/>
       <c r="P16" s="158"/>
-      <c r="Q16" s="164" t="s">
+      <c r="Q16" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="164"/>
+      <c r="R16" s="162"/>
       <c r="S16" s="73" t="s">
         <v>46</v>
       </c>
@@ -12783,34 +12787,34 @@
       <c r="AH16" s="161"/>
       <c r="AI16" s="161"/>
       <c r="AJ16" s="160"/>
-      <c r="AK16" s="168" t="s">
+      <c r="AK16" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="AL16" s="169"/>
-      <c r="AM16" s="169"/>
-      <c r="AN16" s="169"/>
-      <c r="AO16" s="169"/>
-      <c r="AP16" s="169"/>
-      <c r="AQ16" s="169"/>
-      <c r="AR16" s="170"/>
-      <c r="AS16" s="152" t="s">
+      <c r="AL16" s="174"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="174"/>
+      <c r="AO16" s="174"/>
+      <c r="AP16" s="174"/>
+      <c r="AQ16" s="174"/>
+      <c r="AR16" s="175"/>
+      <c r="AS16" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT16" s="153"/>
-      <c r="AU16" s="153"/>
-      <c r="AV16" s="153"/>
-      <c r="AW16" s="153"/>
-      <c r="AX16" s="153"/>
-      <c r="AY16" s="153"/>
-      <c r="AZ16" s="153"/>
-      <c r="BA16" s="153"/>
-      <c r="BB16" s="153"/>
-      <c r="BC16" s="153"/>
-      <c r="BD16" s="153"/>
-      <c r="BE16" s="153"/>
-      <c r="BF16" s="153"/>
-      <c r="BG16" s="153"/>
-      <c r="BH16" s="154"/>
+      <c r="AT16" s="177"/>
+      <c r="AU16" s="177"/>
+      <c r="AV16" s="177"/>
+      <c r="AW16" s="177"/>
+      <c r="AX16" s="177"/>
+      <c r="AY16" s="177"/>
+      <c r="AZ16" s="177"/>
+      <c r="BA16" s="177"/>
+      <c r="BB16" s="177"/>
+      <c r="BC16" s="177"/>
+      <c r="BD16" s="177"/>
+      <c r="BE16" s="177"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="178"/>
       <c r="BJ16" s="18"/>
       <c r="BK16" s="18"/>
       <c r="BL16" s="18"/>
@@ -12845,10 +12849,10 @@
       <c r="CO16" s="18"/>
     </row>
     <row r="17" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="155">
+      <c r="A17" s="152">
         <v>11</v>
       </c>
-      <c r="B17" s="155"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="156" t="s">
         <v>86</v>
       </c>
@@ -12867,10 +12871,10 @@
       <c r="N17" s="157"/>
       <c r="O17" s="157"/>
       <c r="P17" s="158"/>
-      <c r="Q17" s="164" t="s">
+      <c r="Q17" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="164"/>
+      <c r="R17" s="162"/>
       <c r="S17" s="73" t="s">
         <v>46</v>
       </c>
@@ -12899,34 +12903,34 @@
       <c r="AH17" s="161"/>
       <c r="AI17" s="161"/>
       <c r="AJ17" s="160"/>
-      <c r="AK17" s="165" t="s">
+      <c r="AK17" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="AL17" s="166"/>
-      <c r="AM17" s="166"/>
-      <c r="AN17" s="166"/>
-      <c r="AO17" s="166"/>
-      <c r="AP17" s="166"/>
-      <c r="AQ17" s="166"/>
-      <c r="AR17" s="167"/>
-      <c r="AS17" s="171" t="s">
+      <c r="AL17" s="193"/>
+      <c r="AM17" s="193"/>
+      <c r="AN17" s="193"/>
+      <c r="AO17" s="193"/>
+      <c r="AP17" s="193"/>
+      <c r="AQ17" s="193"/>
+      <c r="AR17" s="194"/>
+      <c r="AS17" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="AT17" s="172"/>
-      <c r="AU17" s="172"/>
-      <c r="AV17" s="172"/>
-      <c r="AW17" s="172"/>
-      <c r="AX17" s="172"/>
-      <c r="AY17" s="172"/>
-      <c r="AZ17" s="172"/>
-      <c r="BA17" s="172"/>
-      <c r="BB17" s="172"/>
-      <c r="BC17" s="172"/>
-      <c r="BD17" s="172"/>
-      <c r="BE17" s="172"/>
-      <c r="BF17" s="172"/>
-      <c r="BG17" s="172"/>
-      <c r="BH17" s="173"/>
+      <c r="AT17" s="180"/>
+      <c r="AU17" s="180"/>
+      <c r="AV17" s="180"/>
+      <c r="AW17" s="180"/>
+      <c r="AX17" s="180"/>
+      <c r="AY17" s="180"/>
+      <c r="AZ17" s="180"/>
+      <c r="BA17" s="180"/>
+      <c r="BB17" s="180"/>
+      <c r="BC17" s="180"/>
+      <c r="BD17" s="180"/>
+      <c r="BE17" s="180"/>
+      <c r="BF17" s="180"/>
+      <c r="BG17" s="180"/>
+      <c r="BH17" s="181"/>
       <c r="BJ17" s="18"/>
       <c r="BK17" s="18"/>
       <c r="BL17" s="18"/>
@@ -12961,10 +12965,10 @@
       <c r="CO17" s="18"/>
     </row>
     <row r="18" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="155">
+      <c r="A18" s="152">
         <v>12</v>
       </c>
-      <c r="B18" s="155"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="156" t="s">
         <v>87</v>
       </c>
@@ -12983,10 +12987,10 @@
       <c r="N18" s="157"/>
       <c r="O18" s="157"/>
       <c r="P18" s="158"/>
-      <c r="Q18" s="164" t="s">
+      <c r="Q18" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="164"/>
+      <c r="R18" s="162"/>
       <c r="S18" s="73" t="s">
         <v>46</v>
       </c>
@@ -13015,34 +13019,34 @@
       <c r="AH18" s="161"/>
       <c r="AI18" s="161"/>
       <c r="AJ18" s="160"/>
-      <c r="AK18" s="168" t="s">
+      <c r="AK18" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="AL18" s="169"/>
-      <c r="AM18" s="169"/>
-      <c r="AN18" s="169"/>
-      <c r="AO18" s="169"/>
-      <c r="AP18" s="169"/>
-      <c r="AQ18" s="169"/>
-      <c r="AR18" s="170"/>
-      <c r="AS18" s="152" t="s">
+      <c r="AL18" s="174"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="174"/>
+      <c r="AO18" s="174"/>
+      <c r="AP18" s="174"/>
+      <c r="AQ18" s="174"/>
+      <c r="AR18" s="175"/>
+      <c r="AS18" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT18" s="153"/>
-      <c r="AU18" s="153"/>
-      <c r="AV18" s="153"/>
-      <c r="AW18" s="153"/>
-      <c r="AX18" s="153"/>
-      <c r="AY18" s="153"/>
-      <c r="AZ18" s="153"/>
-      <c r="BA18" s="153"/>
-      <c r="BB18" s="153"/>
-      <c r="BC18" s="153"/>
-      <c r="BD18" s="153"/>
-      <c r="BE18" s="153"/>
-      <c r="BF18" s="153"/>
-      <c r="BG18" s="153"/>
-      <c r="BH18" s="154"/>
+      <c r="AT18" s="177"/>
+      <c r="AU18" s="177"/>
+      <c r="AV18" s="177"/>
+      <c r="AW18" s="177"/>
+      <c r="AX18" s="177"/>
+      <c r="AY18" s="177"/>
+      <c r="AZ18" s="177"/>
+      <c r="BA18" s="177"/>
+      <c r="BB18" s="177"/>
+      <c r="BC18" s="177"/>
+      <c r="BD18" s="177"/>
+      <c r="BE18" s="177"/>
+      <c r="BF18" s="177"/>
+      <c r="BG18" s="177"/>
+      <c r="BH18" s="178"/>
       <c r="BJ18" s="18"/>
       <c r="BK18" s="18"/>
       <c r="BL18" s="18"/>
@@ -13077,88 +13081,88 @@
       <c r="CO18" s="18"/>
     </row>
     <row r="19" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="155">
+      <c r="A19" s="152">
         <v>13</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="163" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163" t="s">
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="164" t="s">
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="164"/>
+      <c r="R19" s="162"/>
       <c r="S19" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="164" t="s">
+      <c r="T19" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164">
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162">
         <v>28</v>
       </c>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164" t="s">
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164" t="s">
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="164"/>
-      <c r="AH19" s="164"/>
-      <c r="AI19" s="164"/>
-      <c r="AJ19" s="164"/>
-      <c r="AK19" s="168" t="s">
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="162"/>
+      <c r="AJ19" s="162"/>
+      <c r="AK19" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="AL19" s="169"/>
-      <c r="AM19" s="169"/>
-      <c r="AN19" s="169"/>
-      <c r="AO19" s="169"/>
-      <c r="AP19" s="169"/>
-      <c r="AQ19" s="169"/>
-      <c r="AR19" s="170"/>
-      <c r="AS19" s="162" t="s">
+      <c r="AL19" s="174"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="174"/>
+      <c r="AO19" s="174"/>
+      <c r="AP19" s="174"/>
+      <c r="AQ19" s="174"/>
+      <c r="AR19" s="175"/>
+      <c r="AS19" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT19" s="162"/>
-      <c r="AU19" s="162"/>
-      <c r="AV19" s="162"/>
-      <c r="AW19" s="162"/>
-      <c r="AX19" s="162"/>
-      <c r="AY19" s="162"/>
-      <c r="AZ19" s="162"/>
-      <c r="BA19" s="162"/>
-      <c r="BB19" s="162"/>
-      <c r="BC19" s="162"/>
-      <c r="BD19" s="162"/>
-      <c r="BE19" s="162"/>
-      <c r="BF19" s="162"/>
-      <c r="BG19" s="162"/>
-      <c r="BH19" s="162"/>
+      <c r="AT19" s="189"/>
+      <c r="AU19" s="189"/>
+      <c r="AV19" s="189"/>
+      <c r="AW19" s="189"/>
+      <c r="AX19" s="189"/>
+      <c r="AY19" s="189"/>
+      <c r="AZ19" s="189"/>
+      <c r="BA19" s="189"/>
+      <c r="BB19" s="189"/>
+      <c r="BC19" s="189"/>
+      <c r="BD19" s="189"/>
+      <c r="BE19" s="189"/>
+      <c r="BF19" s="189"/>
+      <c r="BG19" s="189"/>
+      <c r="BH19" s="189"/>
       <c r="BJ19" s="18"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="18"/>
@@ -13193,88 +13197,88 @@
       <c r="CO19" s="18"/>
     </row>
     <row r="20" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="155">
+      <c r="A20" s="152">
         <v>14</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="163" t="s">
+      <c r="B20" s="152"/>
+      <c r="C20" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163" t="s">
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="164" t="s">
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="164"/>
+      <c r="R20" s="162"/>
       <c r="S20" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="164" t="s">
+      <c r="T20" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164">
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162">
         <v>60</v>
       </c>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="164" t="s">
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164" t="s">
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="164"/>
-      <c r="AH20" s="164"/>
-      <c r="AI20" s="164"/>
-      <c r="AJ20" s="164"/>
-      <c r="AK20" s="168" t="s">
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="AL20" s="169"/>
-      <c r="AM20" s="169"/>
-      <c r="AN20" s="169"/>
-      <c r="AO20" s="169"/>
-      <c r="AP20" s="169"/>
-      <c r="AQ20" s="169"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="162" t="s">
+      <c r="AL20" s="174"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="174"/>
+      <c r="AO20" s="174"/>
+      <c r="AP20" s="174"/>
+      <c r="AQ20" s="174"/>
+      <c r="AR20" s="175"/>
+      <c r="AS20" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT20" s="162"/>
-      <c r="AU20" s="162"/>
-      <c r="AV20" s="162"/>
-      <c r="AW20" s="162"/>
-      <c r="AX20" s="162"/>
-      <c r="AY20" s="162"/>
-      <c r="AZ20" s="162"/>
-      <c r="BA20" s="162"/>
-      <c r="BB20" s="162"/>
-      <c r="BC20" s="162"/>
-      <c r="BD20" s="162"/>
-      <c r="BE20" s="162"/>
-      <c r="BF20" s="162"/>
-      <c r="BG20" s="162"/>
-      <c r="BH20" s="162"/>
+      <c r="AT20" s="189"/>
+      <c r="AU20" s="189"/>
+      <c r="AV20" s="189"/>
+      <c r="AW20" s="189"/>
+      <c r="AX20" s="189"/>
+      <c r="AY20" s="189"/>
+      <c r="AZ20" s="189"/>
+      <c r="BA20" s="189"/>
+      <c r="BB20" s="189"/>
+      <c r="BC20" s="189"/>
+      <c r="BD20" s="189"/>
+      <c r="BE20" s="189"/>
+      <c r="BF20" s="189"/>
+      <c r="BG20" s="189"/>
+      <c r="BH20" s="189"/>
       <c r="BJ20" s="18"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="18"/>
@@ -13309,88 +13313,88 @@
       <c r="CO20" s="18"/>
     </row>
     <row r="21" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="155">
+      <c r="A21" s="152">
         <v>15</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="163" t="s">
+      <c r="B21" s="152"/>
+      <c r="C21" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163" t="s">
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="164" t="s">
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="164"/>
+      <c r="R21" s="162"/>
       <c r="S21" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="164" t="s">
+      <c r="T21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164" t="s">
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="164" t="s">
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164" t="s">
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="164"/>
-      <c r="AH21" s="164"/>
-      <c r="AI21" s="164"/>
-      <c r="AJ21" s="164"/>
-      <c r="AK21" s="164" t="s">
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AL21" s="164"/>
-      <c r="AM21" s="164"/>
-      <c r="AN21" s="164"/>
-      <c r="AO21" s="164"/>
-      <c r="AP21" s="164"/>
-      <c r="AQ21" s="164"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162" t="s">
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="162"/>
+      <c r="AP21" s="162"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="162"/>
+      <c r="AS21" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT21" s="162"/>
-      <c r="AU21" s="162"/>
-      <c r="AV21" s="162"/>
-      <c r="AW21" s="162"/>
-      <c r="AX21" s="162"/>
-      <c r="AY21" s="162"/>
-      <c r="AZ21" s="162"/>
-      <c r="BA21" s="162"/>
-      <c r="BB21" s="162"/>
-      <c r="BC21" s="162"/>
-      <c r="BD21" s="162"/>
-      <c r="BE21" s="162"/>
-      <c r="BF21" s="162"/>
-      <c r="BG21" s="162"/>
-      <c r="BH21" s="162"/>
+      <c r="AT21" s="189"/>
+      <c r="AU21" s="189"/>
+      <c r="AV21" s="189"/>
+      <c r="AW21" s="189"/>
+      <c r="AX21" s="189"/>
+      <c r="AY21" s="189"/>
+      <c r="AZ21" s="189"/>
+      <c r="BA21" s="189"/>
+      <c r="BB21" s="189"/>
+      <c r="BC21" s="189"/>
+      <c r="BD21" s="189"/>
+      <c r="BE21" s="189"/>
+      <c r="BF21" s="189"/>
+      <c r="BG21" s="189"/>
+      <c r="BH21" s="189"/>
       <c r="BJ21" s="18"/>
       <c r="BK21" s="18"/>
       <c r="BL21" s="18"/>
@@ -13425,88 +13429,88 @@
       <c r="CO21" s="18"/>
     </row>
     <row r="22" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="155">
+      <c r="A22" s="152">
         <v>16</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="163" t="s">
+      <c r="B22" s="152"/>
+      <c r="C22" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163" t="s">
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="164" t="s">
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="164"/>
+      <c r="R22" s="162"/>
       <c r="S22" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="164" t="s">
+      <c r="T22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164" t="s">
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164" t="s">
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164" t="s">
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="164"/>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164" t="s">
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="162"/>
+      <c r="AJ22" s="162"/>
+      <c r="AK22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AL22" s="164"/>
-      <c r="AM22" s="164"/>
-      <c r="AN22" s="164"/>
-      <c r="AO22" s="164"/>
-      <c r="AP22" s="164"/>
-      <c r="AQ22" s="164"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162" t="s">
+      <c r="AL22" s="162"/>
+      <c r="AM22" s="162"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="162"/>
+      <c r="AP22" s="162"/>
+      <c r="AQ22" s="162"/>
+      <c r="AR22" s="162"/>
+      <c r="AS22" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT22" s="162"/>
-      <c r="AU22" s="162"/>
-      <c r="AV22" s="162"/>
-      <c r="AW22" s="162"/>
-      <c r="AX22" s="162"/>
-      <c r="AY22" s="162"/>
-      <c r="AZ22" s="162"/>
-      <c r="BA22" s="162"/>
-      <c r="BB22" s="162"/>
-      <c r="BC22" s="162"/>
-      <c r="BD22" s="162"/>
-      <c r="BE22" s="162"/>
-      <c r="BF22" s="162"/>
-      <c r="BG22" s="162"/>
-      <c r="BH22" s="162"/>
+      <c r="AT22" s="189"/>
+      <c r="AU22" s="189"/>
+      <c r="AV22" s="189"/>
+      <c r="AW22" s="189"/>
+      <c r="AX22" s="189"/>
+      <c r="AY22" s="189"/>
+      <c r="AZ22" s="189"/>
+      <c r="BA22" s="189"/>
+      <c r="BB22" s="189"/>
+      <c r="BC22" s="189"/>
+      <c r="BD22" s="189"/>
+      <c r="BE22" s="189"/>
+      <c r="BF22" s="189"/>
+      <c r="BG22" s="189"/>
+      <c r="BH22" s="189"/>
       <c r="BJ22" s="18"/>
       <c r="BK22" s="18"/>
       <c r="BL22" s="18"/>
@@ -13541,32 +13545,32 @@
       <c r="CO22" s="18"/>
     </row>
     <row r="23" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="155">
+      <c r="A23" s="152">
         <v>17</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="163" t="s">
+      <c r="B23" s="152"/>
+      <c r="C23" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163" t="s">
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="164" t="s">
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="164"/>
+      <c r="R23" s="162"/>
       <c r="S23" s="80" t="s">
         <v>46</v>
       </c>
@@ -13577,52 +13581,52 @@
       <c r="V23" s="161"/>
       <c r="W23" s="161"/>
       <c r="X23" s="160"/>
-      <c r="Y23" s="164" t="s">
+      <c r="Y23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164" t="s">
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164" t="s">
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="164"/>
-      <c r="AH23" s="164"/>
-      <c r="AI23" s="164"/>
-      <c r="AJ23" s="164"/>
-      <c r="AK23" s="164" t="s">
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="162"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="AL23" s="164"/>
-      <c r="AM23" s="164"/>
-      <c r="AN23" s="164"/>
-      <c r="AO23" s="164"/>
-      <c r="AP23" s="164"/>
-      <c r="AQ23" s="164"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162" t="s">
+      <c r="AL23" s="162"/>
+      <c r="AM23" s="162"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="162"/>
+      <c r="AP23" s="162"/>
+      <c r="AQ23" s="162"/>
+      <c r="AR23" s="162"/>
+      <c r="AS23" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AT23" s="162"/>
-      <c r="AU23" s="162"/>
-      <c r="AV23" s="162"/>
-      <c r="AW23" s="162"/>
-      <c r="AX23" s="162"/>
-      <c r="AY23" s="162"/>
-      <c r="AZ23" s="162"/>
-      <c r="BA23" s="162"/>
-      <c r="BB23" s="162"/>
-      <c r="BC23" s="162"/>
-      <c r="BD23" s="162"/>
-      <c r="BE23" s="162"/>
-      <c r="BF23" s="162"/>
-      <c r="BG23" s="162"/>
-      <c r="BH23" s="162"/>
+      <c r="AT23" s="189"/>
+      <c r="AU23" s="189"/>
+      <c r="AV23" s="189"/>
+      <c r="AW23" s="189"/>
+      <c r="AX23" s="189"/>
+      <c r="AY23" s="189"/>
+      <c r="AZ23" s="189"/>
+      <c r="BA23" s="189"/>
+      <c r="BB23" s="189"/>
+      <c r="BC23" s="189"/>
+      <c r="BD23" s="189"/>
+      <c r="BE23" s="189"/>
+      <c r="BF23" s="189"/>
+      <c r="BG23" s="189"/>
+      <c r="BH23" s="189"/>
       <c r="BJ23" s="18"/>
       <c r="BK23" s="18"/>
       <c r="BL23" s="18"/>
@@ -13657,68 +13661,68 @@
       <c r="CO23" s="18"/>
     </row>
     <row r="24" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="155">
+      <c r="A24" s="152">
         <v>18</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
       <c r="S24" s="73"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="164"/>
-      <c r="AH24" s="164"/>
-      <c r="AI24" s="164"/>
-      <c r="AJ24" s="164"/>
-      <c r="AK24" s="164"/>
-      <c r="AL24" s="164"/>
-      <c r="AM24" s="164"/>
-      <c r="AN24" s="164"/>
-      <c r="AO24" s="164"/>
-      <c r="AP24" s="164"/>
-      <c r="AQ24" s="164"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="162"/>
-      <c r="AU24" s="162"/>
-      <c r="AV24" s="162"/>
-      <c r="AW24" s="162"/>
-      <c r="AX24" s="162"/>
-      <c r="AY24" s="162"/>
-      <c r="AZ24" s="162"/>
-      <c r="BA24" s="162"/>
-      <c r="BB24" s="162"/>
-      <c r="BC24" s="162"/>
-      <c r="BD24" s="162"/>
-      <c r="BE24" s="162"/>
-      <c r="BF24" s="162"/>
-      <c r="BG24" s="162"/>
-      <c r="BH24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="162"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="162"/>
+      <c r="AJ24" s="162"/>
+      <c r="AK24" s="162"/>
+      <c r="AL24" s="162"/>
+      <c r="AM24" s="162"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="162"/>
+      <c r="AP24" s="162"/>
+      <c r="AQ24" s="162"/>
+      <c r="AR24" s="162"/>
+      <c r="AS24" s="189"/>
+      <c r="AT24" s="189"/>
+      <c r="AU24" s="189"/>
+      <c r="AV24" s="189"/>
+      <c r="AW24" s="189"/>
+      <c r="AX24" s="189"/>
+      <c r="AY24" s="189"/>
+      <c r="AZ24" s="189"/>
+      <c r="BA24" s="189"/>
+      <c r="BB24" s="189"/>
+      <c r="BC24" s="189"/>
+      <c r="BD24" s="189"/>
+      <c r="BE24" s="189"/>
+      <c r="BF24" s="189"/>
+      <c r="BG24" s="189"/>
+      <c r="BH24" s="189"/>
       <c r="BJ24" s="18"/>
       <c r="BK24" s="18"/>
       <c r="BL24" s="18"/>
@@ -13753,68 +13757,68 @@
       <c r="CO24" s="18"/>
     </row>
     <row r="25" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="155">
+      <c r="A25" s="152">
         <v>19</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
       <c r="S25" s="73"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
-      <c r="X25" s="164"/>
-      <c r="Y25" s="164"/>
-      <c r="Z25" s="164"/>
-      <c r="AA25" s="164"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="164"/>
-      <c r="AH25" s="164"/>
-      <c r="AI25" s="164"/>
-      <c r="AJ25" s="164"/>
-      <c r="AK25" s="164"/>
-      <c r="AL25" s="164"/>
-      <c r="AM25" s="164"/>
-      <c r="AN25" s="164"/>
-      <c r="AO25" s="164"/>
-      <c r="AP25" s="164"/>
-      <c r="AQ25" s="164"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="162"/>
-      <c r="AU25" s="162"/>
-      <c r="AV25" s="162"/>
-      <c r="AW25" s="162"/>
-      <c r="AX25" s="162"/>
-      <c r="AY25" s="162"/>
-      <c r="AZ25" s="162"/>
-      <c r="BA25" s="162"/>
-      <c r="BB25" s="162"/>
-      <c r="BC25" s="162"/>
-      <c r="BD25" s="162"/>
-      <c r="BE25" s="162"/>
-      <c r="BF25" s="162"/>
-      <c r="BG25" s="162"/>
-      <c r="BH25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
+      <c r="AM25" s="162"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="162"/>
+      <c r="AP25" s="162"/>
+      <c r="AQ25" s="162"/>
+      <c r="AR25" s="162"/>
+      <c r="AS25" s="189"/>
+      <c r="AT25" s="189"/>
+      <c r="AU25" s="189"/>
+      <c r="AV25" s="189"/>
+      <c r="AW25" s="189"/>
+      <c r="AX25" s="189"/>
+      <c r="AY25" s="189"/>
+      <c r="AZ25" s="189"/>
+      <c r="BA25" s="189"/>
+      <c r="BB25" s="189"/>
+      <c r="BC25" s="189"/>
+      <c r="BD25" s="189"/>
+      <c r="BE25" s="189"/>
+      <c r="BF25" s="189"/>
+      <c r="BG25" s="189"/>
+      <c r="BH25" s="189"/>
       <c r="BJ25" s="18"/>
       <c r="BK25" s="18"/>
       <c r="BL25" s="18"/>
@@ -13849,68 +13853,68 @@
       <c r="CO25" s="18"/>
     </row>
     <row r="26" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="155">
+      <c r="A26" s="152">
         <v>20</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
       <c r="S26" s="56"/>
       <c r="T26" s="159"/>
       <c r="U26" s="161"/>
       <c r="V26" s="161"/>
       <c r="W26" s="161"/>
       <c r="X26" s="160"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="164"/>
-      <c r="AH26" s="164"/>
-      <c r="AI26" s="164"/>
-      <c r="AJ26" s="164"/>
-      <c r="AK26" s="164"/>
-      <c r="AL26" s="164"/>
-      <c r="AM26" s="164"/>
-      <c r="AN26" s="164"/>
-      <c r="AO26" s="164"/>
-      <c r="AP26" s="164"/>
-      <c r="AQ26" s="164"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="162"/>
-      <c r="AU26" s="162"/>
-      <c r="AV26" s="162"/>
-      <c r="AW26" s="162"/>
-      <c r="AX26" s="162"/>
-      <c r="AY26" s="162"/>
-      <c r="AZ26" s="162"/>
-      <c r="BA26" s="162"/>
-      <c r="BB26" s="162"/>
-      <c r="BC26" s="162"/>
-      <c r="BD26" s="162"/>
-      <c r="BE26" s="162"/>
-      <c r="BF26" s="162"/>
-      <c r="BG26" s="162"/>
-      <c r="BH26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="162"/>
+      <c r="AM26" s="162"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="162"/>
+      <c r="AP26" s="162"/>
+      <c r="AQ26" s="162"/>
+      <c r="AR26" s="162"/>
+      <c r="AS26" s="189"/>
+      <c r="AT26" s="189"/>
+      <c r="AU26" s="189"/>
+      <c r="AV26" s="189"/>
+      <c r="AW26" s="189"/>
+      <c r="AX26" s="189"/>
+      <c r="AY26" s="189"/>
+      <c r="AZ26" s="189"/>
+      <c r="BA26" s="189"/>
+      <c r="BB26" s="189"/>
+      <c r="BC26" s="189"/>
+      <c r="BD26" s="189"/>
+      <c r="BE26" s="189"/>
+      <c r="BF26" s="189"/>
+      <c r="BG26" s="189"/>
+      <c r="BH26" s="189"/>
       <c r="BJ26" s="18"/>
       <c r="BK26" s="18"/>
       <c r="BL26" s="18"/>
@@ -13945,10 +13949,10 @@
       <c r="CO26" s="18"/>
     </row>
     <row r="27" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="155">
+      <c r="A27" s="152">
         <v>21</v>
       </c>
-      <c r="B27" s="155"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="156"/>
       <c r="D27" s="157"/>
       <c r="E27" s="157"/>
@@ -13991,22 +13995,22 @@
       <c r="AP27" s="161"/>
       <c r="AQ27" s="161"/>
       <c r="AR27" s="160"/>
-      <c r="AS27" s="152"/>
-      <c r="AT27" s="153"/>
-      <c r="AU27" s="153"/>
-      <c r="AV27" s="153"/>
-      <c r="AW27" s="153"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
-      <c r="BB27" s="153"/>
-      <c r="BC27" s="153"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="154"/>
+      <c r="AS27" s="176"/>
+      <c r="AT27" s="177"/>
+      <c r="AU27" s="177"/>
+      <c r="AV27" s="177"/>
+      <c r="AW27" s="177"/>
+      <c r="AX27" s="177"/>
+      <c r="AY27" s="177"/>
+      <c r="AZ27" s="177"/>
+      <c r="BA27" s="177"/>
+      <c r="BB27" s="177"/>
+      <c r="BC27" s="177"/>
+      <c r="BD27" s="177"/>
+      <c r="BE27" s="177"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="178"/>
       <c r="BJ27" s="18"/>
       <c r="BK27" s="18"/>
       <c r="BL27" s="18"/>
@@ -14199,632 +14203,632 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174" t="s">
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="174"/>
-      <c r="AF30" s="174"/>
-      <c r="AG30" s="174"/>
-      <c r="AH30" s="174"/>
-      <c r="AI30" s="174" t="s">
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="163"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="163"/>
+      <c r="AC30" s="163"/>
+      <c r="AD30" s="163"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="163"/>
+      <c r="AG30" s="163"/>
+      <c r="AH30" s="163"/>
+      <c r="AI30" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="AJ30" s="174"/>
-      <c r="AK30" s="174"/>
-      <c r="AL30" s="174"/>
-      <c r="AM30" s="174"/>
-      <c r="AN30" s="174"/>
-      <c r="AO30" s="174"/>
-      <c r="AP30" s="174"/>
-      <c r="AQ30" s="174"/>
-      <c r="AR30" s="174"/>
-      <c r="AS30" s="174"/>
-      <c r="AT30" s="174"/>
-      <c r="AU30" s="174"/>
-      <c r="AV30" s="174" t="s">
+      <c r="AJ30" s="163"/>
+      <c r="AK30" s="163"/>
+      <c r="AL30" s="163"/>
+      <c r="AM30" s="163"/>
+      <c r="AN30" s="163"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="163"/>
+      <c r="AS30" s="163"/>
+      <c r="AT30" s="163"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="AW30" s="174"/>
-      <c r="AX30" s="174"/>
-      <c r="AY30" s="174"/>
-      <c r="AZ30" s="174"/>
-      <c r="BA30" s="174"/>
-      <c r="BB30" s="174"/>
-      <c r="BC30" s="174"/>
-      <c r="BD30" s="174"/>
-      <c r="BE30" s="174"/>
-      <c r="BF30" s="174"/>
-      <c r="BG30" s="174"/>
-      <c r="BH30" s="174"/>
+      <c r="AW30" s="163"/>
+      <c r="AX30" s="163"/>
+      <c r="AY30" s="163"/>
+      <c r="AZ30" s="163"/>
+      <c r="BA30" s="163"/>
+      <c r="BB30" s="163"/>
+      <c r="BC30" s="163"/>
+      <c r="BD30" s="163"/>
+      <c r="BE30" s="163"/>
+      <c r="BF30" s="163"/>
+      <c r="BG30" s="163"/>
+      <c r="BH30" s="163"/>
     </row>
     <row r="31" spans="1:93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="175"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="175"/>
-      <c r="U31" s="175"/>
-      <c r="V31" s="175"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="175"/>
-      <c r="Y31" s="175"/>
-      <c r="Z31" s="175"/>
-      <c r="AA31" s="175"/>
-      <c r="AB31" s="175"/>
-      <c r="AC31" s="175"/>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="175"/>
-      <c r="AG31" s="175"/>
-      <c r="AH31" s="175"/>
-      <c r="AI31" s="155"/>
-      <c r="AJ31" s="155"/>
-      <c r="AK31" s="155"/>
-      <c r="AL31" s="155"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="155"/>
-      <c r="AO31" s="155"/>
-      <c r="AP31" s="155"/>
-      <c r="AQ31" s="155"/>
-      <c r="AR31" s="155"/>
-      <c r="AS31" s="155"/>
-      <c r="AT31" s="155"/>
-      <c r="AU31" s="155"/>
-      <c r="AV31" s="177"/>
-      <c r="AW31" s="177"/>
-      <c r="AX31" s="177"/>
-      <c r="AY31" s="177"/>
-      <c r="AZ31" s="177"/>
-      <c r="BA31" s="177"/>
-      <c r="BB31" s="177"/>
-      <c r="BC31" s="177"/>
-      <c r="BD31" s="177"/>
-      <c r="BE31" s="177"/>
-      <c r="BF31" s="177"/>
-      <c r="BG31" s="177"/>
-      <c r="BH31" s="177"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="182"/>
+      <c r="AF31" s="182"/>
+      <c r="AG31" s="182"/>
+      <c r="AH31" s="182"/>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="152"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="152"/>
+      <c r="AO31" s="152"/>
+      <c r="AP31" s="152"/>
+      <c r="AQ31" s="152"/>
+      <c r="AR31" s="152"/>
+      <c r="AS31" s="152"/>
+      <c r="AT31" s="152"/>
+      <c r="AU31" s="152"/>
+      <c r="AV31" s="191"/>
+      <c r="AW31" s="191"/>
+      <c r="AX31" s="191"/>
+      <c r="AY31" s="191"/>
+      <c r="AZ31" s="191"/>
+      <c r="BA31" s="191"/>
+      <c r="BB31" s="191"/>
+      <c r="BC31" s="191"/>
+      <c r="BD31" s="191"/>
+      <c r="BE31" s="191"/>
+      <c r="BF31" s="191"/>
+      <c r="BG31" s="191"/>
+      <c r="BH31" s="191"/>
     </row>
     <row r="32" spans="1:93" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="175"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="175"/>
-      <c r="Y32" s="175"/>
-      <c r="Z32" s="175"/>
-      <c r="AA32" s="175"/>
-      <c r="AB32" s="175"/>
-      <c r="AC32" s="175"/>
-      <c r="AD32" s="175"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="175"/>
-      <c r="AG32" s="175"/>
-      <c r="AH32" s="175"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="155"/>
-      <c r="AK32" s="155"/>
-      <c r="AL32" s="155"/>
-      <c r="AM32" s="155"/>
-      <c r="AN32" s="155"/>
-      <c r="AO32" s="155"/>
-      <c r="AP32" s="155"/>
-      <c r="AQ32" s="155"/>
-      <c r="AR32" s="155"/>
-      <c r="AS32" s="155"/>
-      <c r="AT32" s="155"/>
-      <c r="AU32" s="155"/>
-      <c r="AV32" s="164"/>
-      <c r="AW32" s="164"/>
-      <c r="AX32" s="164"/>
-      <c r="AY32" s="164"/>
-      <c r="AZ32" s="164"/>
-      <c r="BA32" s="164"/>
-      <c r="BB32" s="164"/>
-      <c r="BC32" s="164"/>
-      <c r="BD32" s="164"/>
-      <c r="BE32" s="164"/>
-      <c r="BF32" s="164"/>
-      <c r="BG32" s="164"/>
-      <c r="BH32" s="164"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="182"/>
+      <c r="AF32" s="182"/>
+      <c r="AG32" s="182"/>
+      <c r="AH32" s="182"/>
+      <c r="AI32" s="152"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="152"/>
+      <c r="AM32" s="152"/>
+      <c r="AN32" s="152"/>
+      <c r="AO32" s="152"/>
+      <c r="AP32" s="152"/>
+      <c r="AQ32" s="152"/>
+      <c r="AR32" s="152"/>
+      <c r="AS32" s="152"/>
+      <c r="AT32" s="152"/>
+      <c r="AU32" s="152"/>
+      <c r="AV32" s="162"/>
+      <c r="AW32" s="162"/>
+      <c r="AX32" s="162"/>
+      <c r="AY32" s="162"/>
+      <c r="AZ32" s="162"/>
+      <c r="BA32" s="162"/>
+      <c r="BB32" s="162"/>
+      <c r="BC32" s="162"/>
+      <c r="BD32" s="162"/>
+      <c r="BE32" s="162"/>
+      <c r="BF32" s="162"/>
+      <c r="BG32" s="162"/>
+      <c r="BH32" s="162"/>
     </row>
     <row r="33" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="164"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="164"/>
-      <c r="AH33" s="164"/>
-      <c r="AI33" s="155"/>
-      <c r="AJ33" s="155"/>
-      <c r="AK33" s="155"/>
-      <c r="AL33" s="155"/>
-      <c r="AM33" s="155"/>
-      <c r="AN33" s="155"/>
-      <c r="AO33" s="155"/>
-      <c r="AP33" s="155"/>
-      <c r="AQ33" s="155"/>
-      <c r="AR33" s="155"/>
-      <c r="AS33" s="155"/>
-      <c r="AT33" s="155"/>
-      <c r="AU33" s="155"/>
-      <c r="AV33" s="164"/>
-      <c r="AW33" s="164"/>
-      <c r="AX33" s="164"/>
-      <c r="AY33" s="164"/>
-      <c r="AZ33" s="164"/>
-      <c r="BA33" s="164"/>
-      <c r="BB33" s="164"/>
-      <c r="BC33" s="164"/>
-      <c r="BD33" s="164"/>
-      <c r="BE33" s="164"/>
-      <c r="BF33" s="164"/>
-      <c r="BG33" s="164"/>
-      <c r="BH33" s="164"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="152"/>
+      <c r="AN33" s="152"/>
+      <c r="AO33" s="152"/>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="152"/>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="152"/>
+      <c r="AT33" s="152"/>
+      <c r="AU33" s="152"/>
+      <c r="AV33" s="162"/>
+      <c r="AW33" s="162"/>
+      <c r="AX33" s="162"/>
+      <c r="AY33" s="162"/>
+      <c r="AZ33" s="162"/>
+      <c r="BA33" s="162"/>
+      <c r="BB33" s="162"/>
+      <c r="BC33" s="162"/>
+      <c r="BD33" s="162"/>
+      <c r="BE33" s="162"/>
+      <c r="BF33" s="162"/>
+      <c r="BG33" s="162"/>
+      <c r="BH33" s="162"/>
     </row>
     <row r="34" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="164"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="164"/>
-      <c r="T34" s="164"/>
-      <c r="U34" s="164"/>
-      <c r="V34" s="164"/>
-      <c r="W34" s="164"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="164"/>
-      <c r="Z34" s="164"/>
-      <c r="AA34" s="164"/>
-      <c r="AB34" s="164"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="164"/>
-      <c r="AE34" s="164"/>
-      <c r="AF34" s="164"/>
-      <c r="AG34" s="164"/>
-      <c r="AH34" s="164"/>
-      <c r="AI34" s="155"/>
-      <c r="AJ34" s="155"/>
-      <c r="AK34" s="155"/>
-      <c r="AL34" s="155"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="155"/>
-      <c r="AO34" s="155"/>
-      <c r="AP34" s="155"/>
-      <c r="AQ34" s="155"/>
-      <c r="AR34" s="155"/>
-      <c r="AS34" s="155"/>
-      <c r="AT34" s="155"/>
-      <c r="AU34" s="155"/>
-      <c r="AV34" s="164"/>
-      <c r="AW34" s="164"/>
-      <c r="AX34" s="164"/>
-      <c r="AY34" s="164"/>
-      <c r="AZ34" s="164"/>
-      <c r="BA34" s="164"/>
-      <c r="BB34" s="164"/>
-      <c r="BC34" s="164"/>
-      <c r="BD34" s="164"/>
-      <c r="BE34" s="164"/>
-      <c r="BF34" s="164"/>
-      <c r="BG34" s="164"/>
-      <c r="BH34" s="164"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="162"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="162"/>
+      <c r="AG34" s="162"/>
+      <c r="AH34" s="162"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="152"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="152"/>
+      <c r="AM34" s="152"/>
+      <c r="AN34" s="152"/>
+      <c r="AO34" s="152"/>
+      <c r="AP34" s="152"/>
+      <c r="AQ34" s="152"/>
+      <c r="AR34" s="152"/>
+      <c r="AS34" s="152"/>
+      <c r="AT34" s="152"/>
+      <c r="AU34" s="152"/>
+      <c r="AV34" s="162"/>
+      <c r="AW34" s="162"/>
+      <c r="AX34" s="162"/>
+      <c r="AY34" s="162"/>
+      <c r="AZ34" s="162"/>
+      <c r="BA34" s="162"/>
+      <c r="BB34" s="162"/>
+      <c r="BC34" s="162"/>
+      <c r="BD34" s="162"/>
+      <c r="BE34" s="162"/>
+      <c r="BF34" s="162"/>
+      <c r="BG34" s="162"/>
+      <c r="BH34" s="162"/>
     </row>
     <row r="35" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="164"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="164"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="164"/>
-      <c r="V35" s="164"/>
-      <c r="W35" s="164"/>
-      <c r="X35" s="164"/>
-      <c r="Y35" s="164"/>
-      <c r="Z35" s="164"/>
-      <c r="AA35" s="164"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="164"/>
-      <c r="AD35" s="164"/>
-      <c r="AE35" s="164"/>
-      <c r="AF35" s="164"/>
-      <c r="AG35" s="164"/>
-      <c r="AH35" s="164"/>
-      <c r="AI35" s="155"/>
-      <c r="AJ35" s="155"/>
-      <c r="AK35" s="155"/>
-      <c r="AL35" s="155"/>
-      <c r="AM35" s="155"/>
-      <c r="AN35" s="155"/>
-      <c r="AO35" s="155"/>
-      <c r="AP35" s="155"/>
-      <c r="AQ35" s="155"/>
-      <c r="AR35" s="155"/>
-      <c r="AS35" s="155"/>
-      <c r="AT35" s="155"/>
-      <c r="AU35" s="155"/>
-      <c r="AV35" s="164"/>
-      <c r="AW35" s="164"/>
-      <c r="AX35" s="164"/>
-      <c r="AY35" s="164"/>
-      <c r="AZ35" s="164"/>
-      <c r="BA35" s="164"/>
-      <c r="BB35" s="164"/>
-      <c r="BC35" s="164"/>
-      <c r="BD35" s="164"/>
-      <c r="BE35" s="164"/>
-      <c r="BF35" s="164"/>
-      <c r="BG35" s="164"/>
-      <c r="BH35" s="164"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="162"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
+      <c r="Y35" s="162"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="162"/>
+      <c r="AB35" s="162"/>
+      <c r="AC35" s="162"/>
+      <c r="AD35" s="162"/>
+      <c r="AE35" s="162"/>
+      <c r="AF35" s="162"/>
+      <c r="AG35" s="162"/>
+      <c r="AH35" s="162"/>
+      <c r="AI35" s="152"/>
+      <c r="AJ35" s="152"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="152"/>
+      <c r="AM35" s="152"/>
+      <c r="AN35" s="152"/>
+      <c r="AO35" s="152"/>
+      <c r="AP35" s="152"/>
+      <c r="AQ35" s="152"/>
+      <c r="AR35" s="152"/>
+      <c r="AS35" s="152"/>
+      <c r="AT35" s="152"/>
+      <c r="AU35" s="152"/>
+      <c r="AV35" s="162"/>
+      <c r="AW35" s="162"/>
+      <c r="AX35" s="162"/>
+      <c r="AY35" s="162"/>
+      <c r="AZ35" s="162"/>
+      <c r="BA35" s="162"/>
+      <c r="BB35" s="162"/>
+      <c r="BC35" s="162"/>
+      <c r="BD35" s="162"/>
+      <c r="BE35" s="162"/>
+      <c r="BF35" s="162"/>
+      <c r="BG35" s="162"/>
+      <c r="BH35" s="162"/>
     </row>
     <row r="36" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="164"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="164"/>
-      <c r="W36" s="164"/>
-      <c r="X36" s="164"/>
-      <c r="Y36" s="164"/>
-      <c r="Z36" s="164"/>
-      <c r="AA36" s="164"/>
-      <c r="AB36" s="164"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="164"/>
-      <c r="AE36" s="164"/>
-      <c r="AF36" s="164"/>
-      <c r="AG36" s="164"/>
-      <c r="AH36" s="164"/>
-      <c r="AI36" s="155"/>
-      <c r="AJ36" s="155"/>
-      <c r="AK36" s="155"/>
-      <c r="AL36" s="155"/>
-      <c r="AM36" s="155"/>
-      <c r="AN36" s="155"/>
-      <c r="AO36" s="155"/>
-      <c r="AP36" s="155"/>
-      <c r="AQ36" s="155"/>
-      <c r="AR36" s="155"/>
-      <c r="AS36" s="155"/>
-      <c r="AT36" s="155"/>
-      <c r="AU36" s="155"/>
-      <c r="AV36" s="164"/>
-      <c r="AW36" s="164"/>
-      <c r="AX36" s="164"/>
-      <c r="AY36" s="164"/>
-      <c r="AZ36" s="164"/>
-      <c r="BA36" s="164"/>
-      <c r="BB36" s="164"/>
-      <c r="BC36" s="164"/>
-      <c r="BD36" s="164"/>
-      <c r="BE36" s="164"/>
-      <c r="BF36" s="164"/>
-      <c r="BG36" s="164"/>
-      <c r="BH36" s="164"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="162"/>
+      <c r="V36" s="162"/>
+      <c r="W36" s="162"/>
+      <c r="X36" s="162"/>
+      <c r="Y36" s="162"/>
+      <c r="Z36" s="162"/>
+      <c r="AA36" s="162"/>
+      <c r="AB36" s="162"/>
+      <c r="AC36" s="162"/>
+      <c r="AD36" s="162"/>
+      <c r="AE36" s="162"/>
+      <c r="AF36" s="162"/>
+      <c r="AG36" s="162"/>
+      <c r="AH36" s="162"/>
+      <c r="AI36" s="152"/>
+      <c r="AJ36" s="152"/>
+      <c r="AK36" s="152"/>
+      <c r="AL36" s="152"/>
+      <c r="AM36" s="152"/>
+      <c r="AN36" s="152"/>
+      <c r="AO36" s="152"/>
+      <c r="AP36" s="152"/>
+      <c r="AQ36" s="152"/>
+      <c r="AR36" s="152"/>
+      <c r="AS36" s="152"/>
+      <c r="AT36" s="152"/>
+      <c r="AU36" s="152"/>
+      <c r="AV36" s="162"/>
+      <c r="AW36" s="162"/>
+      <c r="AX36" s="162"/>
+      <c r="AY36" s="162"/>
+      <c r="AZ36" s="162"/>
+      <c r="BA36" s="162"/>
+      <c r="BB36" s="162"/>
+      <c r="BC36" s="162"/>
+      <c r="BD36" s="162"/>
+      <c r="BE36" s="162"/>
+      <c r="BF36" s="162"/>
+      <c r="BG36" s="162"/>
+      <c r="BH36" s="162"/>
     </row>
     <row r="37" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="164"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="164"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="164"/>
-      <c r="U37" s="164"/>
-      <c r="V37" s="164"/>
-      <c r="W37" s="164"/>
-      <c r="X37" s="164"/>
-      <c r="Y37" s="164"/>
-      <c r="Z37" s="164"/>
-      <c r="AA37" s="164"/>
-      <c r="AB37" s="164"/>
-      <c r="AC37" s="164"/>
-      <c r="AD37" s="164"/>
-      <c r="AE37" s="164"/>
-      <c r="AF37" s="164"/>
-      <c r="AG37" s="164"/>
-      <c r="AH37" s="164"/>
-      <c r="AI37" s="155"/>
-      <c r="AJ37" s="155"/>
-      <c r="AK37" s="155"/>
-      <c r="AL37" s="155"/>
-      <c r="AM37" s="155"/>
-      <c r="AN37" s="155"/>
-      <c r="AO37" s="155"/>
-      <c r="AP37" s="155"/>
-      <c r="AQ37" s="155"/>
-      <c r="AR37" s="155"/>
-      <c r="AS37" s="155"/>
-      <c r="AT37" s="155"/>
-      <c r="AU37" s="155"/>
-      <c r="AV37" s="164"/>
-      <c r="AW37" s="164"/>
-      <c r="AX37" s="164"/>
-      <c r="AY37" s="164"/>
-      <c r="AZ37" s="164"/>
-      <c r="BA37" s="164"/>
-      <c r="BB37" s="164"/>
-      <c r="BC37" s="164"/>
-      <c r="BD37" s="164"/>
-      <c r="BE37" s="164"/>
-      <c r="BF37" s="164"/>
-      <c r="BG37" s="164"/>
-      <c r="BH37" s="164"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
+      <c r="R37" s="162"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="162"/>
+      <c r="V37" s="162"/>
+      <c r="W37" s="162"/>
+      <c r="X37" s="162"/>
+      <c r="Y37" s="162"/>
+      <c r="Z37" s="162"/>
+      <c r="AA37" s="162"/>
+      <c r="AB37" s="162"/>
+      <c r="AC37" s="162"/>
+      <c r="AD37" s="162"/>
+      <c r="AE37" s="162"/>
+      <c r="AF37" s="162"/>
+      <c r="AG37" s="162"/>
+      <c r="AH37" s="162"/>
+      <c r="AI37" s="152"/>
+      <c r="AJ37" s="152"/>
+      <c r="AK37" s="152"/>
+      <c r="AL37" s="152"/>
+      <c r="AM37" s="152"/>
+      <c r="AN37" s="152"/>
+      <c r="AO37" s="152"/>
+      <c r="AP37" s="152"/>
+      <c r="AQ37" s="152"/>
+      <c r="AR37" s="152"/>
+      <c r="AS37" s="152"/>
+      <c r="AT37" s="152"/>
+      <c r="AU37" s="152"/>
+      <c r="AV37" s="162"/>
+      <c r="AW37" s="162"/>
+      <c r="AX37" s="162"/>
+      <c r="AY37" s="162"/>
+      <c r="AZ37" s="162"/>
+      <c r="BA37" s="162"/>
+      <c r="BB37" s="162"/>
+      <c r="BC37" s="162"/>
+      <c r="BD37" s="162"/>
+      <c r="BE37" s="162"/>
+      <c r="BF37" s="162"/>
+      <c r="BG37" s="162"/>
+      <c r="BH37" s="162"/>
     </row>
     <row r="38" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="164"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
-      <c r="Z38" s="164"/>
-      <c r="AA38" s="164"/>
-      <c r="AB38" s="164"/>
-      <c r="AC38" s="164"/>
-      <c r="AD38" s="164"/>
-      <c r="AE38" s="164"/>
-      <c r="AF38" s="164"/>
-      <c r="AG38" s="164"/>
-      <c r="AH38" s="164"/>
-      <c r="AI38" s="155"/>
-      <c r="AJ38" s="155"/>
-      <c r="AK38" s="155"/>
-      <c r="AL38" s="155"/>
-      <c r="AM38" s="155"/>
-      <c r="AN38" s="155"/>
-      <c r="AO38" s="155"/>
-      <c r="AP38" s="155"/>
-      <c r="AQ38" s="155"/>
-      <c r="AR38" s="155"/>
-      <c r="AS38" s="155"/>
-      <c r="AT38" s="155"/>
-      <c r="AU38" s="155"/>
-      <c r="AV38" s="164"/>
-      <c r="AW38" s="164"/>
-      <c r="AX38" s="164"/>
-      <c r="AY38" s="164"/>
-      <c r="AZ38" s="164"/>
-      <c r="BA38" s="164"/>
-      <c r="BB38" s="164"/>
-      <c r="BC38" s="164"/>
-      <c r="BD38" s="164"/>
-      <c r="BE38" s="164"/>
-      <c r="BF38" s="164"/>
-      <c r="BG38" s="164"/>
-      <c r="BH38" s="164"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
+      <c r="R38" s="162"/>
+      <c r="S38" s="162"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="162"/>
+      <c r="W38" s="162"/>
+      <c r="X38" s="162"/>
+      <c r="Y38" s="162"/>
+      <c r="Z38" s="162"/>
+      <c r="AA38" s="162"/>
+      <c r="AB38" s="162"/>
+      <c r="AC38" s="162"/>
+      <c r="AD38" s="162"/>
+      <c r="AE38" s="162"/>
+      <c r="AF38" s="162"/>
+      <c r="AG38" s="162"/>
+      <c r="AH38" s="162"/>
+      <c r="AI38" s="152"/>
+      <c r="AJ38" s="152"/>
+      <c r="AK38" s="152"/>
+      <c r="AL38" s="152"/>
+      <c r="AM38" s="152"/>
+      <c r="AN38" s="152"/>
+      <c r="AO38" s="152"/>
+      <c r="AP38" s="152"/>
+      <c r="AQ38" s="152"/>
+      <c r="AR38" s="152"/>
+      <c r="AS38" s="152"/>
+      <c r="AT38" s="152"/>
+      <c r="AU38" s="152"/>
+      <c r="AV38" s="162"/>
+      <c r="AW38" s="162"/>
+      <c r="AX38" s="162"/>
+      <c r="AY38" s="162"/>
+      <c r="AZ38" s="162"/>
+      <c r="BA38" s="162"/>
+      <c r="BB38" s="162"/>
+      <c r="BC38" s="162"/>
+      <c r="BD38" s="162"/>
+      <c r="BE38" s="162"/>
+      <c r="BF38" s="162"/>
+      <c r="BG38" s="162"/>
+      <c r="BH38" s="162"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="164"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="164"/>
-      <c r="R39" s="164"/>
-      <c r="S39" s="164"/>
-      <c r="T39" s="164"/>
-      <c r="U39" s="164"/>
-      <c r="V39" s="164"/>
-      <c r="W39" s="164"/>
-      <c r="X39" s="164"/>
-      <c r="Y39" s="164"/>
-      <c r="Z39" s="164"/>
-      <c r="AA39" s="164"/>
-      <c r="AB39" s="164"/>
-      <c r="AC39" s="164"/>
-      <c r="AD39" s="164"/>
-      <c r="AE39" s="164"/>
-      <c r="AF39" s="164"/>
-      <c r="AG39" s="164"/>
-      <c r="AH39" s="164"/>
-      <c r="AI39" s="155"/>
-      <c r="AJ39" s="155"/>
-      <c r="AK39" s="155"/>
-      <c r="AL39" s="155"/>
-      <c r="AM39" s="155"/>
-      <c r="AN39" s="155"/>
-      <c r="AO39" s="155"/>
-      <c r="AP39" s="155"/>
-      <c r="AQ39" s="155"/>
-      <c r="AR39" s="155"/>
-      <c r="AS39" s="155"/>
-      <c r="AT39" s="155"/>
-      <c r="AU39" s="155"/>
-      <c r="AV39" s="164"/>
-      <c r="AW39" s="164"/>
-      <c r="AX39" s="164"/>
-      <c r="AY39" s="164"/>
-      <c r="AZ39" s="164"/>
-      <c r="BA39" s="164"/>
-      <c r="BB39" s="164"/>
-      <c r="BC39" s="164"/>
-      <c r="BD39" s="164"/>
-      <c r="BE39" s="164"/>
-      <c r="BF39" s="164"/>
-      <c r="BG39" s="164"/>
-      <c r="BH39" s="164"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="162"/>
+      <c r="S39" s="162"/>
+      <c r="T39" s="162"/>
+      <c r="U39" s="162"/>
+      <c r="V39" s="162"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="162"/>
+      <c r="Y39" s="162"/>
+      <c r="Z39" s="162"/>
+      <c r="AA39" s="162"/>
+      <c r="AB39" s="162"/>
+      <c r="AC39" s="162"/>
+      <c r="AD39" s="162"/>
+      <c r="AE39" s="162"/>
+      <c r="AF39" s="162"/>
+      <c r="AG39" s="162"/>
+      <c r="AH39" s="162"/>
+      <c r="AI39" s="152"/>
+      <c r="AJ39" s="152"/>
+      <c r="AK39" s="152"/>
+      <c r="AL39" s="152"/>
+      <c r="AM39" s="152"/>
+      <c r="AN39" s="152"/>
+      <c r="AO39" s="152"/>
+      <c r="AP39" s="152"/>
+      <c r="AQ39" s="152"/>
+      <c r="AR39" s="152"/>
+      <c r="AS39" s="152"/>
+      <c r="AT39" s="152"/>
+      <c r="AU39" s="152"/>
+      <c r="AV39" s="162"/>
+      <c r="AW39" s="162"/>
+      <c r="AX39" s="162"/>
+      <c r="AY39" s="162"/>
+      <c r="AZ39" s="162"/>
+      <c r="BA39" s="162"/>
+      <c r="BB39" s="162"/>
+      <c r="BC39" s="162"/>
+      <c r="BD39" s="162"/>
+      <c r="BE39" s="162"/>
+      <c r="BF39" s="162"/>
+      <c r="BG39" s="162"/>
+      <c r="BH39" s="162"/>
     </row>
     <row r="40" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
@@ -14890,83 +14894,180 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="AC4:AR4"/>
-    <mergeCell ref="AK5:AR6"/>
-    <mergeCell ref="AC5:AJ6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="AC11:AJ11"/>
-    <mergeCell ref="AC12:AJ12"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="AS4:BH6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BB2:BH2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:L6"/>
-    <mergeCell ref="M4:P6"/>
-    <mergeCell ref="Q4:R6"/>
+    <mergeCell ref="AS27:BH27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AJ27"/>
+    <mergeCell ref="AK27:AR27"/>
+    <mergeCell ref="AS25:BH25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AS26:BH26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AJ25"/>
+    <mergeCell ref="AK25:AR25"/>
+    <mergeCell ref="AK23:AR23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AJ24"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AV37:BH37"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L34:AH34"/>
+    <mergeCell ref="AI34:AU34"/>
+    <mergeCell ref="AV34:BH34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:AH35"/>
+    <mergeCell ref="AI35:AU35"/>
+    <mergeCell ref="AV35:BH35"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AJ17"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:AH38"/>
+    <mergeCell ref="AI38:AU38"/>
+    <mergeCell ref="AV38:BH38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:AH39"/>
+    <mergeCell ref="AI39:AU39"/>
+    <mergeCell ref="AV39:BH39"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:AH36"/>
+    <mergeCell ref="AI36:AU36"/>
+    <mergeCell ref="AV36:BH36"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="AK20:AR20"/>
+    <mergeCell ref="AC19:AJ19"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AS19:BH19"/>
+    <mergeCell ref="AS20:BH20"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:AH37"/>
+    <mergeCell ref="AI37:AU37"/>
+    <mergeCell ref="AS17:BH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AI32:AU32"/>
+    <mergeCell ref="AV32:BH32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L33:AH33"/>
+    <mergeCell ref="AI33:AU33"/>
+    <mergeCell ref="AV33:BH33"/>
+    <mergeCell ref="AV30:BH30"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AI30:AU30"/>
+    <mergeCell ref="L30:AH30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="L31:AH31"/>
+    <mergeCell ref="AI31:AU31"/>
+    <mergeCell ref="AV31:BH31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="L32:AH32"/>
+    <mergeCell ref="AS22:BH22"/>
+    <mergeCell ref="AS23:BH23"/>
+    <mergeCell ref="AS24:BH24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AJ21"/>
+    <mergeCell ref="AK21:AR21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="AS21:BH21"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="AK15:AR15"/>
+    <mergeCell ref="AC16:AJ16"/>
+    <mergeCell ref="AK16:AR16"/>
+    <mergeCell ref="AS16:BH16"/>
+    <mergeCell ref="AS15:BH15"/>
+    <mergeCell ref="AK7:AR7"/>
+    <mergeCell ref="AK8:AR8"/>
+    <mergeCell ref="AK9:AR9"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AK12:AR12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="AK14:AR14"/>
+    <mergeCell ref="AS7:BH7"/>
+    <mergeCell ref="AS8:BH8"/>
+    <mergeCell ref="AS9:BH9"/>
+    <mergeCell ref="AS10:BH10"/>
+    <mergeCell ref="AS11:BH11"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="AS14:BH14"/>
+    <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:R1"/>
@@ -14991,182 +15092,85 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BB2:BH2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="AS4:BH6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:L6"/>
+    <mergeCell ref="M4:P6"/>
+    <mergeCell ref="Q4:R6"/>
     <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="AK15:AR15"/>
-    <mergeCell ref="AC16:AJ16"/>
-    <mergeCell ref="AK16:AR16"/>
-    <mergeCell ref="AS16:BH16"/>
-    <mergeCell ref="AS15:BH15"/>
-    <mergeCell ref="AK7:AR7"/>
-    <mergeCell ref="AK8:AR8"/>
-    <mergeCell ref="AK9:AR9"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AK11:AR11"/>
-    <mergeCell ref="AK12:AR12"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AC14:AJ14"/>
-    <mergeCell ref="AK14:AR14"/>
-    <mergeCell ref="AS7:BH7"/>
-    <mergeCell ref="AS8:BH8"/>
-    <mergeCell ref="AS9:BH9"/>
-    <mergeCell ref="AS10:BH10"/>
-    <mergeCell ref="AS11:BH11"/>
-    <mergeCell ref="AS12:BH12"/>
-    <mergeCell ref="AS13:BH13"/>
-    <mergeCell ref="AS14:BH14"/>
-    <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="AC7:AJ7"/>
-    <mergeCell ref="AS22:BH22"/>
-    <mergeCell ref="AS23:BH23"/>
-    <mergeCell ref="AS24:BH24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AJ21"/>
-    <mergeCell ref="AK21:AR21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="AS21:BH21"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AJ23"/>
-    <mergeCell ref="AI32:AU32"/>
-    <mergeCell ref="AV32:BH32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L33:AH33"/>
-    <mergeCell ref="AI33:AU33"/>
-    <mergeCell ref="AV33:BH33"/>
-    <mergeCell ref="AV30:BH30"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AI30:AU30"/>
-    <mergeCell ref="L30:AH30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="L31:AH31"/>
-    <mergeCell ref="AI31:AU31"/>
-    <mergeCell ref="AV31:BH31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="L32:AH32"/>
-    <mergeCell ref="AS17:BH17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AS18:BH18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AJ17"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:AH38"/>
-    <mergeCell ref="AI38:AU38"/>
-    <mergeCell ref="AV38:BH38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:AH39"/>
-    <mergeCell ref="AI39:AU39"/>
-    <mergeCell ref="AV39:BH39"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:AH36"/>
-    <mergeCell ref="AI36:AU36"/>
-    <mergeCell ref="AV36:BH36"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="AK20:AR20"/>
-    <mergeCell ref="AC19:AJ19"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AS19:BH19"/>
-    <mergeCell ref="AS20:BH20"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:AH37"/>
-    <mergeCell ref="AI37:AU37"/>
-    <mergeCell ref="AV37:BH37"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L34:AH34"/>
-    <mergeCell ref="AI34:AU34"/>
-    <mergeCell ref="AV34:BH34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:AH35"/>
-    <mergeCell ref="AI35:AU35"/>
-    <mergeCell ref="AV35:BH35"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AK23:AR23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AJ24"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AS25:BH25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AS26:BH26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AJ25"/>
-    <mergeCell ref="AK25:AR25"/>
-    <mergeCell ref="AS27:BH27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AJ27"/>
-    <mergeCell ref="AK27:AR27"/>
+    <mergeCell ref="AC4:AR4"/>
+    <mergeCell ref="AK5:AR6"/>
+    <mergeCell ref="AC5:AJ6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="AC9:AJ9"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="AC11:AJ11"/>
+    <mergeCell ref="AC12:AJ12"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15184,8 +15188,8 @@
   </sheetPr>
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG61" sqref="AG61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15196,133 +15200,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="198" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="199" t="str">
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="202" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="200" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="195" t="s">
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="203"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="196"/>
-      <c r="AK1" s="196"/>
-      <c r="AL1" s="196"/>
-      <c r="AM1" s="196"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="203" t="s">
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="206"/>
+      <c r="AN1" s="207"/>
+      <c r="AO1" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="205"/>
-      <c r="AS1" s="195" t="s">
+      <c r="AP1" s="210"/>
+      <c r="AQ1" s="210"/>
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" s="196"/>
-      <c r="AU1" s="196"/>
-      <c r="AV1" s="196"/>
-      <c r="AW1" s="196"/>
-      <c r="AX1" s="197"/>
+      <c r="AT1" s="206"/>
+      <c r="AU1" s="206"/>
+      <c r="AV1" s="206"/>
+      <c r="AW1" s="206"/>
+      <c r="AX1" s="207"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="208"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="198" t="s">
+      <c r="A2" s="199"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="200" t="s">
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202">
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="208">
         <v>44538</v>
       </c>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="203" t="s">
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="204"/>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="202">
+      <c r="AP2" s="210"/>
+      <c r="AQ2" s="210"/>
+      <c r="AR2" s="211"/>
+      <c r="AS2" s="208">
         <v>44539</v>
       </c>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="197"/>
+      <c r="AT2" s="206"/>
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
     </row>
     <row r="3" spans="1:50" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
@@ -15432,22 +15436,22 @@
     </row>
     <row r="5" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24"/>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="190" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
       <c r="N5" s="19" t="s">
         <v>52</v>
       </c>
@@ -15496,22 +15500,22 @@
     </row>
     <row r="6" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24"/>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="176" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="190"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20" t="s">
         <v>45</v>
@@ -15556,22 +15560,22 @@
     </row>
     <row r="7" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="176" t="s">
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20" t="s">
         <v>45</v>
@@ -15614,18 +15618,18 @@
     </row>
     <row r="8" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -15666,18 +15670,18 @@
     </row>
     <row r="9" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24"/>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -18790,7 +18794,7 @@
       <c r="I67" s="66"/>
       <c r="J67" s="68"/>
       <c r="K67" s="69" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="L67" s="70"/>
       <c r="M67" s="70"/>
@@ -20774,6 +20778,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="B9:H9"/>
@@ -20784,19 +20801,6 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.詳細設計/2-5_詳細設計_顧客情報消去画面.xlsx
+++ b/2.詳細設計/2-5_詳細設計_顧客情報消去画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47712C98-6482-4DCA-919A-AED7B4C522DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A6535-7499-4B61-9864-FD3BFA8B2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="60" windowWidth="17475" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="345" windowWidth="15600" windowHeight="15555" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.更新履歴'!$A$3:$AX$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.画面レイアウト'!$A$3:$AX$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.入出力定義'!$A$3:$BH$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'4.処理詳細'!$A$3:$AX$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4.処理詳細'!$A$3:$AX$86</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="157">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・画面項目の記述を初期化する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面を戻る</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1257,52 +1253,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3-2)画面項目の記述初期化</t>
-    <rPh sb="4" eb="8">
-      <t>ガメンコウモク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>　3-1-1)</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データ更新できた場合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> → 『3-2)画面項目の記述初期化』の処理を行う。</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>　3-1-2)</t>
     </r>
@@ -1354,22 +1304,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3-3)顧客情報一覧・表示画面への遷移</t>
-    <rPh sb="4" eb="8">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ヒョウジガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・『顧客情報一覧・表示画面』を表示する。</t>
     <rPh sb="2" eb="6">
       <t>コキャクジョウホウ</t>
@@ -1419,6 +1353,98 @@
   </si>
   <si>
     <t>CUST_ID = 『画面項目・顧客ID』</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3-2)顧客情報一覧・表示画面への遷移</t>
+    <rPh sb="4" eb="8">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>　3-1-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ更新できた場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> → 『3-2)顧客情報一覧・表示画面への遷移』の処理を行う。</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細処理</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最後の初期化の消去</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.入出力定義</t>
+    <rPh sb="2" eb="7">
+      <t>ニュウシュツリョクテイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>苗字・名前の画面桁数の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンケタスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2387,6 +2413,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2400,15 +2435,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2420,14 +2446,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2437,9 +2466,6 @@
     </xf>
     <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6280,7 +6306,7 @@
   <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6621,7 +6647,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
       <c r="H10" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="102"/>
@@ -7178,7 +7204,7 @@
       <c r="M25" s="111"/>
       <c r="N25" s="112"/>
       <c r="O25" s="110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P25" s="111"/>
       <c r="Q25" s="111"/>
@@ -7330,7 +7356,7 @@
       <c r="M29" s="111"/>
       <c r="N29" s="112"/>
       <c r="O29" s="116">
-        <v>44539</v>
+        <v>44565</v>
       </c>
       <c r="P29" s="111"/>
       <c r="Q29" s="111"/>
@@ -7784,7 +7810,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:T5"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8066,15 +8092,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="122"/>
-      <c r="C6" s="128"/>
+      <c r="C6" s="128">
+        <v>44544</v>
+      </c>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="F6" s="119" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="119"/>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="K6" s="119" t="s">
+        <v>153</v>
+      </c>
       <c r="L6" s="119"/>
       <c r="M6" s="119"/>
       <c r="N6" s="119"/>
@@ -8084,7 +8116,9 @@
       <c r="R6" s="119"/>
       <c r="S6" s="119"/>
       <c r="T6" s="119"/>
-      <c r="U6" s="130"/>
+      <c r="U6" s="130" t="s">
+        <v>154</v>
+      </c>
       <c r="V6" s="130"/>
       <c r="W6" s="130"/>
       <c r="X6" s="130"/>
@@ -8120,15 +8154,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
+      <c r="C7" s="128">
+        <v>44565</v>
+      </c>
       <c r="D7" s="119"/>
       <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
+      <c r="F7" s="119" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="119"/>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="K7" s="131" t="s">
+        <v>155</v>
+      </c>
       <c r="L7" s="119"/>
       <c r="M7" s="119"/>
       <c r="N7" s="119"/>
@@ -8138,7 +8178,9 @@
       <c r="R7" s="119"/>
       <c r="S7" s="119"/>
       <c r="T7" s="119"/>
-      <c r="U7" s="130"/>
+      <c r="U7" s="130" t="s">
+        <v>156</v>
+      </c>
       <c r="V7" s="130"/>
       <c r="W7" s="130"/>
       <c r="X7" s="130"/>
@@ -11151,7 +11193,7 @@
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20:AR20"/>
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11199,15 +11241,15 @@
       <c r="AD1" s="162"/>
       <c r="AE1" s="162"/>
       <c r="AF1" s="162"/>
-      <c r="AG1" s="167" t="s">
+      <c r="AG1" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="167"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="167"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="167"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
       <c r="AN1" s="162" t="s">
         <v>5</v>
       </c>
@@ -11217,15 +11259,15 @@
       <c r="AR1" s="162"/>
       <c r="AS1" s="162"/>
       <c r="AT1" s="162"/>
-      <c r="AU1" s="167" t="s">
+      <c r="AU1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
-      <c r="AX1" s="167"/>
-      <c r="AY1" s="167"/>
-      <c r="AZ1" s="167"/>
-      <c r="BA1" s="167"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="168"/>
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="168"/>
       <c r="BB1" s="162" t="s">
         <v>5</v>
       </c>
@@ -11271,42 +11313,42 @@
       <c r="AD2" s="162"/>
       <c r="AE2" s="162"/>
       <c r="AF2" s="162"/>
-      <c r="AG2" s="168" t="s">
+      <c r="AG2" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="166">
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="167">
         <v>44538</v>
       </c>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="168" t="s">
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="167"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="166">
-        <v>44538</v>
-      </c>
-      <c r="BC2" s="166"/>
-      <c r="BD2" s="166"/>
-      <c r="BE2" s="166"/>
-      <c r="BF2" s="166"/>
-      <c r="BG2" s="166"/>
-      <c r="BH2" s="166"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
+      <c r="BB2" s="167">
+        <v>44565</v>
+      </c>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="167"/>
+      <c r="BE2" s="167"/>
+      <c r="BF2" s="167"/>
+      <c r="BG2" s="167"/>
+      <c r="BH2" s="167"/>
     </row>
     <row r="3" spans="1:93" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
@@ -11371,80 +11413,80 @@
       <c r="BH3" s="10"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="163" t="s">
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163" t="s">
+      <c r="R4" s="165"/>
+      <c r="S4" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163" t="s">
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="164" t="s">
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="164"/>
-      <c r="BB4" s="164"/>
-      <c r="BC4" s="164"/>
-      <c r="BD4" s="164"/>
-      <c r="BE4" s="164"/>
-      <c r="BF4" s="164"/>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="164"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163"/>
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163"/>
+      <c r="BH4" s="163"/>
       <c r="BJ4" s="18"/>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18"/>
@@ -11479,76 +11521,76 @@
       <c r="CO4" s="18"/>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
       <c r="S5" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="163" t="s">
+      <c r="T5" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163" t="s">
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163" t="s">
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="163" t="s">
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="163"/>
-      <c r="AN5" s="163"/>
-      <c r="AO5" s="163"/>
-      <c r="AP5" s="163"/>
-      <c r="AQ5" s="163"/>
-      <c r="AR5" s="163"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="164"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="164"/>
-      <c r="BG5" s="164"/>
-      <c r="BH5" s="164"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="163"/>
+      <c r="AU5" s="163"/>
+      <c r="AV5" s="163"/>
+      <c r="AW5" s="163"/>
+      <c r="AX5" s="163"/>
+      <c r="AY5" s="163"/>
+      <c r="AZ5" s="163"/>
+      <c r="BA5" s="163"/>
+      <c r="BB5" s="163"/>
+      <c r="BC5" s="163"/>
+      <c r="BD5" s="163"/>
+      <c r="BE5" s="163"/>
+      <c r="BF5" s="163"/>
+      <c r="BG5" s="163"/>
+      <c r="BH5" s="163"/>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="18"/>
       <c r="BL5" s="18"/>
@@ -11583,70 +11625,70 @@
       <c r="CO5" s="18"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
       <c r="S6" s="172"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163" t="s">
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163" t="s">
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
-      <c r="AM6" s="163"/>
-      <c r="AN6" s="163"/>
-      <c r="AO6" s="163"/>
-      <c r="AP6" s="163"/>
-      <c r="AQ6" s="163"/>
-      <c r="AR6" s="163"/>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="164"/>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="164"/>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="164"/>
-      <c r="AY6" s="164"/>
-      <c r="AZ6" s="164"/>
-      <c r="BA6" s="164"/>
-      <c r="BB6" s="164"/>
-      <c r="BC6" s="164"/>
-      <c r="BD6" s="164"/>
-      <c r="BE6" s="164"/>
-      <c r="BF6" s="164"/>
-      <c r="BG6" s="164"/>
-      <c r="BH6" s="164"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="165"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="165"/>
+      <c r="AR6" s="165"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="163"/>
+      <c r="AU6" s="163"/>
+      <c r="AV6" s="163"/>
+      <c r="AW6" s="163"/>
+      <c r="AX6" s="163"/>
+      <c r="AY6" s="163"/>
+      <c r="AZ6" s="163"/>
+      <c r="BA6" s="163"/>
+      <c r="BB6" s="163"/>
+      <c r="BC6" s="163"/>
+      <c r="BD6" s="163"/>
+      <c r="BE6" s="163"/>
+      <c r="BF6" s="163"/>
+      <c r="BG6" s="163"/>
+      <c r="BH6" s="163"/>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18"/>
@@ -11681,28 +11723,28 @@
       <c r="CO6" s="18"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="152">
+      <c r="A7" s="155">
         <v>1</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="165" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165" t="s">
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
       <c r="Q7" s="162" t="s">
         <v>27</v>
       </c>
@@ -11798,28 +11840,28 @@
       <c r="CO7" s="18"/>
     </row>
     <row r="8" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="152">
+      <c r="A8" s="155">
         <v>2</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="156" t="s">
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="154"/>
       <c r="Q8" s="162" t="s">
         <v>27</v>
       </c>
@@ -11835,7 +11877,7 @@
       <c r="W8" s="161"/>
       <c r="X8" s="160"/>
       <c r="Y8" s="159">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="160"/>
       <c r="AA8" s="159" t="s">
@@ -11915,28 +11957,28 @@
       <c r="CO8" s="18"/>
     </row>
     <row r="9" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="152">
+      <c r="A9" s="155">
         <v>3</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="156" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="158"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="154"/>
       <c r="Q9" s="162" t="s">
         <v>27</v>
       </c>
@@ -11952,7 +11994,7 @@
       <c r="W9" s="161"/>
       <c r="X9" s="160"/>
       <c r="Y9" s="159">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z9" s="160"/>
       <c r="AA9" s="159" t="s">
@@ -12032,28 +12074,28 @@
       <c r="CO9" s="18"/>
     </row>
     <row r="10" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="152">
+      <c r="A10" s="155">
         <v>4</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153" t="s">
+      <c r="B10" s="155"/>
+      <c r="C10" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="154"/>
       <c r="Q10" s="162" t="s">
         <v>27</v>
       </c>
@@ -12069,7 +12111,7 @@
       <c r="W10" s="161"/>
       <c r="X10" s="160"/>
       <c r="Y10" s="159">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="160"/>
       <c r="AA10" s="159" t="s">
@@ -12149,28 +12191,28 @@
       <c r="CO10" s="18"/>
     </row>
     <row r="11" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="152">
+      <c r="A11" s="155">
         <v>5</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153" t="s">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="156" t="s">
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="158"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="154"/>
       <c r="Q11" s="162" t="s">
         <v>27</v>
       </c>
@@ -12186,7 +12228,7 @@
       <c r="W11" s="161"/>
       <c r="X11" s="160"/>
       <c r="Y11" s="159">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="160"/>
       <c r="AA11" s="159" t="s">
@@ -12266,28 +12308,28 @@
       <c r="CO11" s="18"/>
     </row>
     <row r="12" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="152">
+      <c r="A12" s="155">
         <v>6</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="156" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="156" t="s">
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="158"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="154"/>
       <c r="Q12" s="162" t="s">
         <v>27</v>
       </c>
@@ -12383,28 +12425,28 @@
       <c r="CO12" s="18"/>
     </row>
     <row r="13" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="152">
+      <c r="A13" s="155">
         <v>7</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="156" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="156" t="s">
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="158"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="154"/>
       <c r="Q13" s="162" t="s">
         <v>27</v>
       </c>
@@ -12500,28 +12542,28 @@
       <c r="CO13" s="18"/>
     </row>
     <row r="14" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="152">
+      <c r="A14" s="155">
         <v>8</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="156" t="s">
+      <c r="B14" s="155"/>
+      <c r="C14" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="156" t="s">
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="158"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="162" t="s">
         <v>27</v>
       </c>
@@ -12617,28 +12659,28 @@
       <c r="CO14" s="18"/>
     </row>
     <row r="15" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="152">
+      <c r="A15" s="155">
         <v>9</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="156" t="s">
+      <c r="B15" s="155"/>
+      <c r="C15" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="156" t="s">
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="158"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
       <c r="Q15" s="162" t="s">
         <v>27</v>
       </c>
@@ -12733,28 +12775,28 @@
       <c r="CO15" s="18"/>
     </row>
     <row r="16" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="152">
+      <c r="A16" s="155">
         <v>10</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="156" t="s">
+      <c r="B16" s="155"/>
+      <c r="C16" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="156" t="s">
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="162" t="s">
         <v>27</v>
       </c>
@@ -12849,28 +12891,28 @@
       <c r="CO16" s="18"/>
     </row>
     <row r="17" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="152">
+      <c r="A17" s="155">
         <v>11</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="156" t="s">
+      <c r="B17" s="155"/>
+      <c r="C17" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="156" t="s">
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
       <c r="Q17" s="162" t="s">
         <v>27</v>
       </c>
@@ -12894,7 +12936,7 @@
       </c>
       <c r="AB17" s="160"/>
       <c r="AC17" s="159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD17" s="161"/>
       <c r="AE17" s="161"/>
@@ -12904,7 +12946,7 @@
       <c r="AI17" s="161"/>
       <c r="AJ17" s="160"/>
       <c r="AK17" s="192" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL17" s="193"/>
       <c r="AM17" s="193"/>
@@ -12965,28 +13007,28 @@
       <c r="CO17" s="18"/>
     </row>
     <row r="18" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="152">
+      <c r="A18" s="155">
         <v>12</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="156" t="s">
+      <c r="B18" s="155"/>
+      <c r="C18" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="156" t="s">
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="154"/>
       <c r="Q18" s="162" t="s">
         <v>27</v>
       </c>
@@ -13081,28 +13123,28 @@
       <c r="CO18" s="18"/>
     </row>
     <row r="19" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="152">
+      <c r="A19" s="155">
         <v>13</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="165" t="s">
+      <c r="B19" s="155"/>
+      <c r="C19" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165" t="s">
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
       <c r="Q19" s="162" t="s">
         <v>27</v>
       </c>
@@ -13197,28 +13239,28 @@
       <c r="CO19" s="18"/>
     </row>
     <row r="20" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="152">
+      <c r="A20" s="155">
         <v>14</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="165" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165" t="s">
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
       <c r="Q20" s="162" t="s">
         <v>27</v>
       </c>
@@ -13313,28 +13355,28 @@
       <c r="CO20" s="18"/>
     </row>
     <row r="21" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="152">
+      <c r="A21" s="155">
         <v>15</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="165" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165" t="s">
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
       <c r="Q21" s="162" t="s">
         <v>27</v>
       </c>
@@ -13429,28 +13471,28 @@
       <c r="CO21" s="18"/>
     </row>
     <row r="22" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="152">
+      <c r="A22" s="155">
         <v>16</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165" t="s">
+      <c r="B22" s="155"/>
+      <c r="C22" s="164" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
       <c r="Q22" s="162" t="s">
         <v>26</v>
       </c>
@@ -13545,28 +13587,28 @@
       <c r="CO22" s="18"/>
     </row>
     <row r="23" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="152">
+      <c r="A23" s="155">
         <v>17</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="165" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165" t="s">
+      <c r="B23" s="155"/>
+      <c r="C23" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
       <c r="Q23" s="162" t="s">
         <v>26</v>
       </c>
@@ -13661,24 +13703,24 @@
       <c r="CO23" s="18"/>
     </row>
     <row r="24" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="152">
+      <c r="A24" s="155">
         <v>18</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
       <c r="Q24" s="162"/>
       <c r="R24" s="162"/>
       <c r="S24" s="73"/>
@@ -13757,24 +13799,24 @@
       <c r="CO24" s="18"/>
     </row>
     <row r="25" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="152">
+      <c r="A25" s="155">
         <v>19</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
       <c r="Q25" s="162"/>
       <c r="R25" s="162"/>
       <c r="S25" s="73"/>
@@ -13853,24 +13895,24 @@
       <c r="CO25" s="18"/>
     </row>
     <row r="26" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="152">
+      <c r="A26" s="155">
         <v>20</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
       <c r="Q26" s="162"/>
       <c r="R26" s="162"/>
       <c r="S26" s="56"/>
@@ -13949,24 +13991,24 @@
       <c r="CO26" s="18"/>
     </row>
     <row r="27" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="152">
+      <c r="A27" s="155">
         <v>21</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="154"/>
       <c r="Q27" s="159"/>
       <c r="R27" s="160"/>
       <c r="S27" s="73"/>
@@ -14203,74 +14245,74 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="163"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="163"/>
-      <c r="AE30" s="163"/>
-      <c r="AF30" s="163"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="163" t="s">
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="AJ30" s="163"/>
-      <c r="AK30" s="163"/>
-      <c r="AL30" s="163"/>
-      <c r="AM30" s="163"/>
-      <c r="AN30" s="163"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="163"/>
-      <c r="AS30" s="163"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163" t="s">
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="165"/>
+      <c r="AQ30" s="165"/>
+      <c r="AR30" s="165"/>
+      <c r="AS30" s="165"/>
+      <c r="AT30" s="165"/>
+      <c r="AU30" s="165"/>
+      <c r="AV30" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="AW30" s="163"/>
-      <c r="AX30" s="163"/>
-      <c r="AY30" s="163"/>
-      <c r="AZ30" s="163"/>
-      <c r="BA30" s="163"/>
-      <c r="BB30" s="163"/>
-      <c r="BC30" s="163"/>
-      <c r="BD30" s="163"/>
-      <c r="BE30" s="163"/>
-      <c r="BF30" s="163"/>
-      <c r="BG30" s="163"/>
-      <c r="BH30" s="163"/>
+      <c r="AW30" s="165"/>
+      <c r="AX30" s="165"/>
+      <c r="AY30" s="165"/>
+      <c r="AZ30" s="165"/>
+      <c r="BA30" s="165"/>
+      <c r="BB30" s="165"/>
+      <c r="BC30" s="165"/>
+      <c r="BD30" s="165"/>
+      <c r="BE30" s="165"/>
+      <c r="BF30" s="165"/>
+      <c r="BG30" s="165"/>
+      <c r="BH30" s="165"/>
     </row>
     <row r="31" spans="1:93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="182"/>
@@ -14307,19 +14349,19 @@
       <c r="AF31" s="182"/>
       <c r="AG31" s="182"/>
       <c r="AH31" s="182"/>
-      <c r="AI31" s="152"/>
-      <c r="AJ31" s="152"/>
-      <c r="AK31" s="152"/>
-      <c r="AL31" s="152"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="152"/>
-      <c r="AO31" s="152"/>
-      <c r="AP31" s="152"/>
-      <c r="AQ31" s="152"/>
-      <c r="AR31" s="152"/>
-      <c r="AS31" s="152"/>
-      <c r="AT31" s="152"/>
-      <c r="AU31" s="152"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="155"/>
+      <c r="AK31" s="155"/>
+      <c r="AL31" s="155"/>
+      <c r="AM31" s="155"/>
+      <c r="AN31" s="155"/>
+      <c r="AO31" s="155"/>
+      <c r="AP31" s="155"/>
+      <c r="AQ31" s="155"/>
+      <c r="AR31" s="155"/>
+      <c r="AS31" s="155"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="155"/>
       <c r="AV31" s="191"/>
       <c r="AW31" s="191"/>
       <c r="AX31" s="191"/>
@@ -14369,19 +14411,19 @@
       <c r="AF32" s="182"/>
       <c r="AG32" s="182"/>
       <c r="AH32" s="182"/>
-      <c r="AI32" s="152"/>
-      <c r="AJ32" s="152"/>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="152"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="152"/>
-      <c r="AP32" s="152"/>
-      <c r="AQ32" s="152"/>
-      <c r="AR32" s="152"/>
-      <c r="AS32" s="152"/>
-      <c r="AT32" s="152"/>
-      <c r="AU32" s="152"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="155"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="155"/>
+      <c r="AQ32" s="155"/>
+      <c r="AR32" s="155"/>
+      <c r="AS32" s="155"/>
+      <c r="AT32" s="155"/>
+      <c r="AU32" s="155"/>
       <c r="AV32" s="162"/>
       <c r="AW32" s="162"/>
       <c r="AX32" s="162"/>
@@ -14431,19 +14473,19 @@
       <c r="AF33" s="162"/>
       <c r="AG33" s="162"/>
       <c r="AH33" s="162"/>
-      <c r="AI33" s="152"/>
-      <c r="AJ33" s="152"/>
-      <c r="AK33" s="152"/>
-      <c r="AL33" s="152"/>
-      <c r="AM33" s="152"/>
-      <c r="AN33" s="152"/>
-      <c r="AO33" s="152"/>
-      <c r="AP33" s="152"/>
-      <c r="AQ33" s="152"/>
-      <c r="AR33" s="152"/>
-      <c r="AS33" s="152"/>
-      <c r="AT33" s="152"/>
-      <c r="AU33" s="152"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="155"/>
+      <c r="AN33" s="155"/>
+      <c r="AO33" s="155"/>
+      <c r="AP33" s="155"/>
+      <c r="AQ33" s="155"/>
+      <c r="AR33" s="155"/>
+      <c r="AS33" s="155"/>
+      <c r="AT33" s="155"/>
+      <c r="AU33" s="155"/>
       <c r="AV33" s="162"/>
       <c r="AW33" s="162"/>
       <c r="AX33" s="162"/>
@@ -14493,19 +14535,19 @@
       <c r="AF34" s="162"/>
       <c r="AG34" s="162"/>
       <c r="AH34" s="162"/>
-      <c r="AI34" s="152"/>
-      <c r="AJ34" s="152"/>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="152"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="152"/>
-      <c r="AO34" s="152"/>
-      <c r="AP34" s="152"/>
-      <c r="AQ34" s="152"/>
-      <c r="AR34" s="152"/>
-      <c r="AS34" s="152"/>
-      <c r="AT34" s="152"/>
-      <c r="AU34" s="152"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="155"/>
+      <c r="AO34" s="155"/>
+      <c r="AP34" s="155"/>
+      <c r="AQ34" s="155"/>
+      <c r="AR34" s="155"/>
+      <c r="AS34" s="155"/>
+      <c r="AT34" s="155"/>
+      <c r="AU34" s="155"/>
       <c r="AV34" s="162"/>
       <c r="AW34" s="162"/>
       <c r="AX34" s="162"/>
@@ -14555,19 +14597,19 @@
       <c r="AF35" s="162"/>
       <c r="AG35" s="162"/>
       <c r="AH35" s="162"/>
-      <c r="AI35" s="152"/>
-      <c r="AJ35" s="152"/>
-      <c r="AK35" s="152"/>
-      <c r="AL35" s="152"/>
-      <c r="AM35" s="152"/>
-      <c r="AN35" s="152"/>
-      <c r="AO35" s="152"/>
-      <c r="AP35" s="152"/>
-      <c r="AQ35" s="152"/>
-      <c r="AR35" s="152"/>
-      <c r="AS35" s="152"/>
-      <c r="AT35" s="152"/>
-      <c r="AU35" s="152"/>
+      <c r="AI35" s="155"/>
+      <c r="AJ35" s="155"/>
+      <c r="AK35" s="155"/>
+      <c r="AL35" s="155"/>
+      <c r="AM35" s="155"/>
+      <c r="AN35" s="155"/>
+      <c r="AO35" s="155"/>
+      <c r="AP35" s="155"/>
+      <c r="AQ35" s="155"/>
+      <c r="AR35" s="155"/>
+      <c r="AS35" s="155"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="155"/>
       <c r="AV35" s="162"/>
       <c r="AW35" s="162"/>
       <c r="AX35" s="162"/>
@@ -14617,19 +14659,19 @@
       <c r="AF36" s="162"/>
       <c r="AG36" s="162"/>
       <c r="AH36" s="162"/>
-      <c r="AI36" s="152"/>
-      <c r="AJ36" s="152"/>
-      <c r="AK36" s="152"/>
-      <c r="AL36" s="152"/>
-      <c r="AM36" s="152"/>
-      <c r="AN36" s="152"/>
-      <c r="AO36" s="152"/>
-      <c r="AP36" s="152"/>
-      <c r="AQ36" s="152"/>
-      <c r="AR36" s="152"/>
-      <c r="AS36" s="152"/>
-      <c r="AT36" s="152"/>
-      <c r="AU36" s="152"/>
+      <c r="AI36" s="155"/>
+      <c r="AJ36" s="155"/>
+      <c r="AK36" s="155"/>
+      <c r="AL36" s="155"/>
+      <c r="AM36" s="155"/>
+      <c r="AN36" s="155"/>
+      <c r="AO36" s="155"/>
+      <c r="AP36" s="155"/>
+      <c r="AQ36" s="155"/>
+      <c r="AR36" s="155"/>
+      <c r="AS36" s="155"/>
+      <c r="AT36" s="155"/>
+      <c r="AU36" s="155"/>
       <c r="AV36" s="162"/>
       <c r="AW36" s="162"/>
       <c r="AX36" s="162"/>
@@ -14679,19 +14721,19 @@
       <c r="AF37" s="162"/>
       <c r="AG37" s="162"/>
       <c r="AH37" s="162"/>
-      <c r="AI37" s="152"/>
-      <c r="AJ37" s="152"/>
-      <c r="AK37" s="152"/>
-      <c r="AL37" s="152"/>
-      <c r="AM37" s="152"/>
-      <c r="AN37" s="152"/>
-      <c r="AO37" s="152"/>
-      <c r="AP37" s="152"/>
-      <c r="AQ37" s="152"/>
-      <c r="AR37" s="152"/>
-      <c r="AS37" s="152"/>
-      <c r="AT37" s="152"/>
-      <c r="AU37" s="152"/>
+      <c r="AI37" s="155"/>
+      <c r="AJ37" s="155"/>
+      <c r="AK37" s="155"/>
+      <c r="AL37" s="155"/>
+      <c r="AM37" s="155"/>
+      <c r="AN37" s="155"/>
+      <c r="AO37" s="155"/>
+      <c r="AP37" s="155"/>
+      <c r="AQ37" s="155"/>
+      <c r="AR37" s="155"/>
+      <c r="AS37" s="155"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="155"/>
       <c r="AV37" s="162"/>
       <c r="AW37" s="162"/>
       <c r="AX37" s="162"/>
@@ -14741,19 +14783,19 @@
       <c r="AF38" s="162"/>
       <c r="AG38" s="162"/>
       <c r="AH38" s="162"/>
-      <c r="AI38" s="152"/>
-      <c r="AJ38" s="152"/>
-      <c r="AK38" s="152"/>
-      <c r="AL38" s="152"/>
-      <c r="AM38" s="152"/>
-      <c r="AN38" s="152"/>
-      <c r="AO38" s="152"/>
-      <c r="AP38" s="152"/>
-      <c r="AQ38" s="152"/>
-      <c r="AR38" s="152"/>
-      <c r="AS38" s="152"/>
-      <c r="AT38" s="152"/>
-      <c r="AU38" s="152"/>
+      <c r="AI38" s="155"/>
+      <c r="AJ38" s="155"/>
+      <c r="AK38" s="155"/>
+      <c r="AL38" s="155"/>
+      <c r="AM38" s="155"/>
+      <c r="AN38" s="155"/>
+      <c r="AO38" s="155"/>
+      <c r="AP38" s="155"/>
+      <c r="AQ38" s="155"/>
+      <c r="AR38" s="155"/>
+      <c r="AS38" s="155"/>
+      <c r="AT38" s="155"/>
+      <c r="AU38" s="155"/>
       <c r="AV38" s="162"/>
       <c r="AW38" s="162"/>
       <c r="AX38" s="162"/>
@@ -14803,19 +14845,19 @@
       <c r="AF39" s="162"/>
       <c r="AG39" s="162"/>
       <c r="AH39" s="162"/>
-      <c r="AI39" s="152"/>
-      <c r="AJ39" s="152"/>
-      <c r="AK39" s="152"/>
-      <c r="AL39" s="152"/>
-      <c r="AM39" s="152"/>
-      <c r="AN39" s="152"/>
-      <c r="AO39" s="152"/>
-      <c r="AP39" s="152"/>
-      <c r="AQ39" s="152"/>
-      <c r="AR39" s="152"/>
-      <c r="AS39" s="152"/>
-      <c r="AT39" s="152"/>
-      <c r="AU39" s="152"/>
+      <c r="AI39" s="155"/>
+      <c r="AJ39" s="155"/>
+      <c r="AK39" s="155"/>
+      <c r="AL39" s="155"/>
+      <c r="AM39" s="155"/>
+      <c r="AN39" s="155"/>
+      <c r="AO39" s="155"/>
+      <c r="AP39" s="155"/>
+      <c r="AQ39" s="155"/>
+      <c r="AR39" s="155"/>
+      <c r="AS39" s="155"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="155"/>
       <c r="AV39" s="162"/>
       <c r="AW39" s="162"/>
       <c r="AX39" s="162"/>
@@ -15044,7 +15086,6 @@
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="AA23:AB23"/>
     <mergeCell ref="AC23:AJ23"/>
-    <mergeCell ref="M10:P10"/>
     <mergeCell ref="AK15:AR15"/>
     <mergeCell ref="AC16:AJ16"/>
     <mergeCell ref="AK16:AR16"/>
@@ -15121,6 +15162,8 @@
     <mergeCell ref="AC4:AR4"/>
     <mergeCell ref="AK5:AR6"/>
     <mergeCell ref="AC5:AJ6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
@@ -15147,8 +15190,6 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M14:P14"/>
@@ -15171,6 +15212,7 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M10:P10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15186,10 +15228,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX104"/>
+  <dimension ref="A1:AX101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG61" sqref="AG61"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15445,13 +15487,13 @@
       <c r="F5" s="196"/>
       <c r="G5" s="196"/>
       <c r="H5" s="196"/>
-      <c r="I5" s="169" t="s">
+      <c r="I5" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
       <c r="N5" s="19" t="s">
         <v>52</v>
       </c>
@@ -15561,7 +15603,7 @@
     <row r="7" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
       <c r="B7" s="195" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="195"/>
       <c r="D7" s="195"/>
@@ -15829,7 +15871,7 @@
     <row r="12" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -15989,7 +16031,7 @@
     <row r="15" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="30"/>
       <c r="B15" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -16149,7 +16191,7 @@
     <row r="18" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -16311,7 +16353,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="33"/>
       <c r="D21" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -16366,7 +16408,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
       <c r="E22" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -16472,7 +16514,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -16480,7 +16522,7 @@
       <c r="I24" s="43"/>
       <c r="J24" s="75"/>
       <c r="K24" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
@@ -16534,7 +16576,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="76"/>
       <c r="K25" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
@@ -16644,7 +16686,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="76"/>
       <c r="K27" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
@@ -16692,7 +16734,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -16700,7 +16742,7 @@
       <c r="I28" s="51"/>
       <c r="J28" s="74"/>
       <c r="K28" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
@@ -16911,7 +16953,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -16977,7 +17019,7 @@
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
       <c r="R33" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
@@ -17071,7 +17113,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -17283,7 +17325,7 @@
       <c r="B39" s="34"/>
       <c r="C39" s="33"/>
       <c r="D39" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -17338,7 +17380,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="34"/>
       <c r="E40" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -17445,7 +17487,7 @@
       <c r="D42" s="50"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -17502,7 +17544,7 @@
         <v>102</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -17556,7 +17598,7 @@
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -17612,7 +17654,7 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
@@ -17715,7 +17757,7 @@
       <c r="D47" s="50"/>
       <c r="E47" s="33"/>
       <c r="F47" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
@@ -17873,7 +17915,7 @@
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
       <c r="D50" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
@@ -17928,7 +17970,7 @@
       <c r="C51" s="33"/>
       <c r="D51" s="34"/>
       <c r="E51" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -17988,7 +18030,7 @@
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
@@ -18087,7 +18129,7 @@
       <c r="B54" s="34"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
@@ -18142,7 +18184,7 @@
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
       <c r="E55" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -18245,7 +18287,7 @@
     <row r="57" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="33"/>
       <c r="B57" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="33"/>
@@ -18300,7 +18342,7 @@
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
@@ -18405,7 +18447,7 @@
     <row r="60" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
@@ -18513,7 +18555,7 @@
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
@@ -18568,7 +18610,7 @@
       <c r="C63" s="33"/>
       <c r="D63" s="34"/>
       <c r="E63" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -18674,7 +18716,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
@@ -18682,7 +18724,7 @@
       <c r="I65" s="43"/>
       <c r="J65" s="75"/>
       <c r="K65" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L65" s="70"/>
       <c r="M65" s="70"/>
@@ -18730,7 +18772,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -18794,7 +18836,7 @@
       <c r="I67" s="66"/>
       <c r="J67" s="68"/>
       <c r="K67" s="69" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L67" s="70"/>
       <c r="M67" s="70"/>
@@ -18894,7 +18936,7 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -19000,7 +19042,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -19213,7 +19255,7 @@
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
       <c r="D75" s="34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -19268,7 +19310,7 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -19316,7 +19358,7 @@
       <c r="AW76" s="33"/>
       <c r="AX76" s="33"/>
     </row>
-    <row r="77" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -19340,41 +19382,39 @@
       <c r="U77" s="33"/>
       <c r="V77" s="33"/>
       <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="33"/>
-      <c r="AC77" s="33"/>
-      <c r="AD77" s="33"/>
-      <c r="AE77" s="33"/>
-      <c r="AF77" s="33"/>
-      <c r="AG77" s="33"/>
-      <c r="AH77" s="33"/>
-      <c r="AI77" s="33"/>
-      <c r="AJ77" s="33"/>
-      <c r="AK77" s="33"/>
-      <c r="AL77" s="33"/>
-      <c r="AM77" s="33"/>
-      <c r="AN77" s="33"/>
-      <c r="AO77" s="33"/>
-      <c r="AP77" s="33"/>
-      <c r="AQ77" s="33"/>
-      <c r="AR77" s="33"/>
-      <c r="AS77" s="33"/>
-      <c r="AT77" s="33"/>
-      <c r="AU77" s="33"/>
-      <c r="AV77" s="33"/>
-      <c r="AW77" s="33"/>
-      <c r="AX77" s="33"/>
-    </row>
-    <row r="78" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="6"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="6"/>
+    </row>
+    <row r="78" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
-      <c r="D78" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="D78" s="33"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -19394,42 +19434,40 @@
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
       <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="33"/>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="33"/>
-      <c r="AG78" s="33"/>
-      <c r="AH78" s="33"/>
-      <c r="AI78" s="33"/>
-      <c r="AJ78" s="33"/>
-      <c r="AK78" s="33"/>
-      <c r="AL78" s="33"/>
-      <c r="AM78" s="33"/>
-      <c r="AN78" s="33"/>
-      <c r="AO78" s="33"/>
-      <c r="AP78" s="33"/>
-      <c r="AQ78" s="33"/>
-      <c r="AR78" s="33"/>
-      <c r="AS78" s="33"/>
-      <c r="AT78" s="33"/>
-      <c r="AU78" s="33"/>
-      <c r="AV78" s="33"/>
-      <c r="AW78" s="33"/>
-      <c r="AX78" s="33"/>
-    </row>
-    <row r="79" spans="1:50" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+    </row>
+    <row r="79" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
-      <c r="E79" s="33" t="s">
-        <v>151</v>
-      </c>
+      <c r="E79" s="33"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
@@ -19448,33 +19486,33 @@
       <c r="U79" s="33"/>
       <c r="V79" s="33"/>
       <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
-      <c r="AB79" s="33"/>
-      <c r="AC79" s="33"/>
-      <c r="AD79" s="33"/>
-      <c r="AE79" s="33"/>
-      <c r="AF79" s="33"/>
-      <c r="AG79" s="33"/>
-      <c r="AH79" s="33"/>
-      <c r="AI79" s="33"/>
-      <c r="AJ79" s="33"/>
-      <c r="AK79" s="33"/>
-      <c r="AL79" s="33"/>
-      <c r="AM79" s="33"/>
-      <c r="AN79" s="33"/>
-      <c r="AO79" s="33"/>
-      <c r="AP79" s="33"/>
-      <c r="AQ79" s="33"/>
-      <c r="AR79" s="33"/>
-      <c r="AS79" s="33"/>
-      <c r="AT79" s="33"/>
-      <c r="AU79" s="33"/>
-      <c r="AV79" s="33"/>
-      <c r="AW79" s="33"/>
-      <c r="AX79" s="33"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
     </row>
     <row r="80" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="33"/>
@@ -19789,29 +19827,29 @@
       <c r="AX85" s="6"/>
     </row>
     <row r="86" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
@@ -19841,29 +19879,29 @@
       <c r="AX86" s="6"/>
     </row>
     <row r="87" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="33"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -19893,29 +19931,29 @@
       <c r="AX87" s="6"/>
     </row>
     <row r="88" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="33"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
@@ -20620,162 +20658,6 @@
       <c r="AW101" s="6"/>
       <c r="AX101" s="6"/>
     </row>
-    <row r="102" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="6"/>
-      <c r="AG102" s="6"/>
-      <c r="AH102" s="6"/>
-      <c r="AI102" s="6"/>
-      <c r="AJ102" s="6"/>
-      <c r="AK102" s="6"/>
-      <c r="AL102" s="6"/>
-      <c r="AM102" s="6"/>
-      <c r="AN102" s="6"/>
-      <c r="AO102" s="6"/>
-      <c r="AP102" s="6"/>
-      <c r="AQ102" s="6"/>
-      <c r="AR102" s="6"/>
-      <c r="AS102" s="6"/>
-      <c r="AT102" s="6"/>
-      <c r="AU102" s="6"/>
-      <c r="AV102" s="6"/>
-      <c r="AW102" s="6"/>
-      <c r="AX102" s="6"/>
-    </row>
-    <row r="103" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
-      <c r="AE103" s="6"/>
-      <c r="AF103" s="6"/>
-      <c r="AG103" s="6"/>
-      <c r="AH103" s="6"/>
-      <c r="AI103" s="6"/>
-      <c r="AJ103" s="6"/>
-      <c r="AK103" s="6"/>
-      <c r="AL103" s="6"/>
-      <c r="AM103" s="6"/>
-      <c r="AN103" s="6"/>
-      <c r="AO103" s="6"/>
-      <c r="AP103" s="6"/>
-      <c r="AQ103" s="6"/>
-      <c r="AR103" s="6"/>
-      <c r="AS103" s="6"/>
-      <c r="AT103" s="6"/>
-      <c r="AU103" s="6"/>
-      <c r="AV103" s="6"/>
-      <c r="AW103" s="6"/>
-      <c r="AX103" s="6"/>
-    </row>
-    <row r="104" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="6"/>
-      <c r="AB104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
-      <c r="AE104" s="6"/>
-      <c r="AF104" s="6"/>
-      <c r="AG104" s="6"/>
-      <c r="AH104" s="6"/>
-      <c r="AI104" s="6"/>
-      <c r="AJ104" s="6"/>
-      <c r="AK104" s="6"/>
-      <c r="AL104" s="6"/>
-      <c r="AM104" s="6"/>
-      <c r="AN104" s="6"/>
-      <c r="AO104" s="6"/>
-      <c r="AP104" s="6"/>
-      <c r="AQ104" s="6"/>
-      <c r="AR104" s="6"/>
-      <c r="AS104" s="6"/>
-      <c r="AT104" s="6"/>
-      <c r="AU104" s="6"/>
-      <c r="AV104" s="6"/>
-      <c r="AW104" s="6"/>
-      <c r="AX104" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="AS1:AX1"/>
@@ -20808,7 +20690,7 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="31" max="49" man="1"/>
     <brk id="59" max="49" man="1"/>
-    <brk id="97" max="49" man="1"/>
+    <brk id="94" max="49" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>